--- a/RABackup/Sets 13 - 23.xlsx
+++ b/RABackup/Sets 13 - 23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA783F-3C56-F946-85D0-1E3666CBFF89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA24CC-1D33-644A-B399-4EF1CDC87494}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18020" windowHeight="18000" xr2:uid="{70C324FA-C5C9-3B4E-A02A-5A5AE2D7C3F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="18000" xr2:uid="{70C324FA-C5C9-3B4E-A02A-5A5AE2D7C3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Chain</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>1.2,2</t>
   </si>
+  <si>
+    <t>1.2,1</t>
+  </si>
 </sst>
 </file>
 
@@ -112,10 +115,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -124,10 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,12 +458,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6197AB0-DD2D-3F42-BFC3-1B21605CB505}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,15 +830,6 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -834,15 +841,6 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1030,15 +1028,6 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1050,15 +1039,6 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1985,7 +1965,6918 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
+      <c r="A38" s="3">
+        <v>14</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>14</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>14</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>14</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>14</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>14</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>14</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>14</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>14</v>
+      </c>
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>14</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>14</v>
+      </c>
+      <c r="B60" s="3">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>14</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>14</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>14</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>14</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>14</v>
+      </c>
+      <c r="B65" s="3">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>14</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>14</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>14</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>14</v>
+      </c>
+      <c r="B71" s="3">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>14</v>
+      </c>
+      <c r="B72" s="3">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>15</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>15</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <v>1</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>15</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>15</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>15</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>15</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>15</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>15</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3">
+        <v>4</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>15</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>15</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>15</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>15</v>
+      </c>
+      <c r="B87" s="3">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>15</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>15</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>15</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>15</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>6</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>15</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>15</v>
+      </c>
+      <c r="B93" s="3">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>15</v>
+      </c>
+      <c r="B94" s="3">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>15</v>
+      </c>
+      <c r="B95" s="3">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>15</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>15</v>
+      </c>
+      <c r="B97" s="3">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>15</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>15</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>15</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>15</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>15</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>5</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>15</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>6</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>15</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>15</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3">
+        <v>2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>15</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3">
+        <v>3</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>15</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3">
+        <v>4</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>15</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>5</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>15</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>6</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>16</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>16</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>16</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>16</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3">
+        <v>4</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>16</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>16</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3">
+        <v>6</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>16</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>16</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>16</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>16</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>16</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3">
+        <v>5</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>16</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3">
+        <v>6</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>16</v>
+      </c>
+      <c r="B122" s="3">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>16</v>
+      </c>
+      <c r="B123" s="3">
+        <v>3</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>16</v>
+      </c>
+      <c r="B124" s="3">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>16</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>16</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3">
+        <v>5</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>16</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>16</v>
+      </c>
+      <c r="B128" s="3">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>16</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>16</v>
+      </c>
+      <c r="B130" s="3">
+        <v>4</v>
+      </c>
+      <c r="C130" s="3">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>16</v>
+      </c>
+      <c r="B131" s="2">
+        <v>4</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>16</v>
+      </c>
+      <c r="B132" s="3">
+        <v>4</v>
+      </c>
+      <c r="C132" s="3">
+        <v>5</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>16</v>
+      </c>
+      <c r="B133" s="3">
+        <v>4</v>
+      </c>
+      <c r="C133" s="3">
+        <v>6</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>16</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>16</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5</v>
+      </c>
+      <c r="C135" s="3">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>16</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>16</v>
+      </c>
+      <c r="B137" s="3">
+        <v>5</v>
+      </c>
+      <c r="C137" s="3">
+        <v>4</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>16</v>
+      </c>
+      <c r="B138" s="3">
+        <v>5</v>
+      </c>
+      <c r="C138" s="3">
+        <v>5</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>16</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5</v>
+      </c>
+      <c r="C139" s="3">
+        <v>6</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>16</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>16</v>
+      </c>
+      <c r="B141" s="3">
+        <v>6</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>16</v>
+      </c>
+      <c r="B142" s="3">
+        <v>6</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="6">
+        <v>0</v>
+      </c>
+      <c r="K142" s="6">
+        <v>0</v>
+      </c>
+      <c r="L142" s="6">
+        <v>0</v>
+      </c>
+      <c r="M142" s="6">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>16</v>
+      </c>
+      <c r="B143" s="2">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>16</v>
+      </c>
+      <c r="B144" s="3">
+        <v>6</v>
+      </c>
+      <c r="C144" s="3">
+        <v>5</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>16</v>
+      </c>
+      <c r="B145" s="3">
+        <v>6</v>
+      </c>
+      <c r="C145" s="3">
+        <v>6</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>17</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>17</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="3">
+        <v>2</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1.2</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>17</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>17</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>17</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+      <c r="C150" s="3">
+        <v>5</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>17</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+      <c r="C151" s="3">
+        <v>6</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>17</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>17</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>17</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2</v>
+      </c>
+      <c r="C154" s="3">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>17</v>
+      </c>
+      <c r="B155" s="3">
+        <v>2</v>
+      </c>
+      <c r="C155" s="3">
+        <v>4</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>17</v>
+      </c>
+      <c r="B156" s="3">
+        <v>2</v>
+      </c>
+      <c r="C156" s="3">
+        <v>5</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>17</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>17</v>
+      </c>
+      <c r="B158" s="3">
+        <v>3</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>17</v>
+      </c>
+      <c r="B159" s="3">
+        <v>3</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>17</v>
+      </c>
+      <c r="B160" s="3">
+        <v>3</v>
+      </c>
+      <c r="C160" s="3">
+        <v>3</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>17</v>
+      </c>
+      <c r="B161" s="3">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>4</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>17</v>
+      </c>
+      <c r="B162" s="3">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3">
+        <v>5</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>17</v>
+      </c>
+      <c r="B163" s="3">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3">
+        <v>6</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>17</v>
+      </c>
+      <c r="B164" s="3">
+        <v>4</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>17</v>
+      </c>
+      <c r="B165" s="3">
+        <v>4</v>
+      </c>
+      <c r="C165" s="3">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>17</v>
+      </c>
+      <c r="B166" s="3">
+        <v>4</v>
+      </c>
+      <c r="C166" s="3">
+        <v>3</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>17</v>
+      </c>
+      <c r="B167" s="3">
+        <v>4</v>
+      </c>
+      <c r="C167" s="3">
+        <v>4</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>17</v>
+      </c>
+      <c r="B168" s="3">
+        <v>4</v>
+      </c>
+      <c r="C168" s="3">
+        <v>5</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>17</v>
+      </c>
+      <c r="B169" s="3">
+        <v>4</v>
+      </c>
+      <c r="C169" s="3">
+        <v>6</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>17</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3">
+        <v>5</v>
+      </c>
+      <c r="C171" s="3">
+        <v>2</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>17</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5</v>
+      </c>
+      <c r="C172" s="3">
+        <v>3</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>17</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5</v>
+      </c>
+      <c r="C173" s="3">
+        <v>4</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+      <c r="F173" s="3">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>17</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5</v>
+      </c>
+      <c r="C174" s="3">
+        <v>5</v>
+      </c>
+      <c r="D174" s="3">
+        <v>1</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>17</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3">
+        <v>6</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>17</v>
+      </c>
+      <c r="B176" s="3">
+        <v>6</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>17</v>
+      </c>
+      <c r="B177" s="3">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3">
+        <v>2</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>17</v>
+      </c>
+      <c r="B178" s="3">
+        <v>6</v>
+      </c>
+      <c r="C178" s="3">
+        <v>3</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>17</v>
+      </c>
+      <c r="B179" s="3">
+        <v>6</v>
+      </c>
+      <c r="C179" s="3">
+        <v>4</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>17</v>
+      </c>
+      <c r="B180" s="3">
+        <v>6</v>
+      </c>
+      <c r="C180" s="3">
+        <v>5</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>17</v>
+      </c>
+      <c r="B181" s="3">
+        <v>6</v>
+      </c>
+      <c r="C181" s="3">
+        <v>6</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>18</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>18</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+      <c r="C183" s="3">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>18</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>18</v>
+      </c>
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+      <c r="C185" s="3">
+        <v>4</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>18</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1</v>
+      </c>
+      <c r="C186" s="3">
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>18</v>
+      </c>
+      <c r="B187" s="3">
+        <v>1</v>
+      </c>
+      <c r="C187" s="3">
+        <v>6</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>18</v>
+      </c>
+      <c r="B188" s="3">
+        <v>2</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>18</v>
+      </c>
+      <c r="B189" s="3">
+        <v>2</v>
+      </c>
+      <c r="C189" s="3">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>18</v>
+      </c>
+      <c r="B190" s="3">
+        <v>2</v>
+      </c>
+      <c r="C190" s="3">
+        <v>3</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>18</v>
+      </c>
+      <c r="B191" s="3">
+        <v>2</v>
+      </c>
+      <c r="C191" s="3">
+        <v>4</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>18</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2</v>
+      </c>
+      <c r="C192" s="3">
+        <v>5</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>18</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3">
+        <v>6</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>18</v>
+      </c>
+      <c r="B194" s="3">
+        <v>3</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>18</v>
+      </c>
+      <c r="B195" s="3">
+        <v>3</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>18</v>
+      </c>
+      <c r="B196" s="3">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3">
+        <v>3</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>18</v>
+      </c>
+      <c r="B197" s="3">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3">
+        <v>4</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>18</v>
+      </c>
+      <c r="B198" s="3">
+        <v>3</v>
+      </c>
+      <c r="C198" s="3">
+        <v>5</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>18</v>
+      </c>
+      <c r="B199" s="3">
+        <v>3</v>
+      </c>
+      <c r="C199" s="3">
+        <v>6</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>18</v>
+      </c>
+      <c r="B200" s="3">
+        <v>4</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>18</v>
+      </c>
+      <c r="B201" s="3">
+        <v>4</v>
+      </c>
+      <c r="C201" s="3">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>18</v>
+      </c>
+      <c r="B202" s="3">
+        <v>4</v>
+      </c>
+      <c r="C202" s="3">
+        <v>3</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>18</v>
+      </c>
+      <c r="B203" s="3">
+        <v>4</v>
+      </c>
+      <c r="C203" s="3">
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>18</v>
+      </c>
+      <c r="B204" s="3">
+        <v>4</v>
+      </c>
+      <c r="C204" s="3">
+        <v>5</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>18</v>
+      </c>
+      <c r="B205" s="3">
+        <v>4</v>
+      </c>
+      <c r="C205" s="3">
+        <v>6</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>18</v>
+      </c>
+      <c r="B206" s="3">
+        <v>5</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>18</v>
+      </c>
+      <c r="B207" s="3">
+        <v>5</v>
+      </c>
+      <c r="C207" s="3">
+        <v>2</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>18</v>
+      </c>
+      <c r="B208" s="3">
+        <v>5</v>
+      </c>
+      <c r="C208" s="3">
+        <v>3</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>18</v>
+      </c>
+      <c r="B209" s="3">
+        <v>5</v>
+      </c>
+      <c r="C209" s="3">
+        <v>4</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>18</v>
+      </c>
+      <c r="B210" s="3">
+        <v>5</v>
+      </c>
+      <c r="C210" s="3">
+        <v>5</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>18</v>
+      </c>
+      <c r="B211" s="3">
+        <v>5</v>
+      </c>
+      <c r="C211" s="3">
+        <v>6</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>18</v>
+      </c>
+      <c r="B212" s="3">
+        <v>6</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>18</v>
+      </c>
+      <c r="B213" s="3">
+        <v>6</v>
+      </c>
+      <c r="C213" s="3">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>18</v>
+      </c>
+      <c r="B214" s="3">
+        <v>6</v>
+      </c>
+      <c r="C214" s="3">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>18</v>
+      </c>
+      <c r="B215" s="3">
+        <v>6</v>
+      </c>
+      <c r="C215" s="3">
+        <v>4</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>18</v>
+      </c>
+      <c r="B216" s="3">
+        <v>6</v>
+      </c>
+      <c r="C216" s="3">
+        <v>5</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>18</v>
+      </c>
+      <c r="B217" s="3">
+        <v>6</v>
+      </c>
+      <c r="C217" s="3">
+        <v>6</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RABackup/Sets 13 - 23.xlsx
+++ b/RABackup/Sets 13 - 23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA24CC-1D33-644A-B399-4EF1CDC87494}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82342DA-AC7D-9042-8BFF-850AC689723B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="18000" xr2:uid="{70C324FA-C5C9-3B4E-A02A-5A5AE2D7C3F2}"/>
+    <workbookView xWindow="11840" yWindow="0" windowWidth="16960" windowHeight="18000" xr2:uid="{70C324FA-C5C9-3B4E-A02A-5A5AE2D7C3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Chain</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>1.2,1</t>
+  </si>
+  <si>
+    <t>1.3,1</t>
   </si>
 </sst>
 </file>
@@ -458,12 +461,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6197AB0-DD2D-3F42-BFC3-1B21605CB505}">
-  <dimension ref="A1:O222"/>
+  <dimension ref="A1:O295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+      <selection pane="bottomLeft" activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8111,9 +8114,33 @@
         <v>1</v>
       </c>
       <c r="C182" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
         <v>1</v>
       </c>
       <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
@@ -8131,9 +8158,33 @@
         <v>1</v>
       </c>
       <c r="C183" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0</v>
+      </c>
+      <c r="E183" s="3">
         <v>2</v>
       </c>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
       <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
         <v>0</v>
       </c>
       <c r="N183">
@@ -8151,9 +8202,33 @@
         <v>1</v>
       </c>
       <c r="C184" s="3">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
       </c>
       <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
         <v>0</v>
       </c>
       <c r="N184">
@@ -8171,9 +8246,33 @@
         <v>1</v>
       </c>
       <c r="C185" s="3">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
       </c>
       <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
         <v>0</v>
       </c>
       <c r="N185">
@@ -8191,10 +8290,34 @@
         <v>1</v>
       </c>
       <c r="C186" s="3">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
       </c>
       <c r="G186">
         <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -8211,9 +8334,33 @@
         <v>1</v>
       </c>
       <c r="C187" s="3">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
       </c>
       <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
         <v>0</v>
       </c>
       <c r="N187">
@@ -8231,9 +8378,33 @@
         <v>2</v>
       </c>
       <c r="C188" s="3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="E188" s="3">
+        <v>3</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
       </c>
       <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
@@ -8251,10 +8422,34 @@
         <v>2</v>
       </c>
       <c r="C189" s="3">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0</v>
       </c>
       <c r="G189">
         <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -8271,10 +8466,34 @@
         <v>2</v>
       </c>
       <c r="C190" s="3">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0</v>
       </c>
       <c r="G190">
         <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -8291,9 +8510,33 @@
         <v>2</v>
       </c>
       <c r="C191" s="3">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>1</v>
       </c>
       <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
         <v>0</v>
       </c>
       <c r="N191">
@@ -8311,10 +8554,34 @@
         <v>2</v>
       </c>
       <c r="C192" s="3">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0</v>
+      </c>
+      <c r="E192" s="3">
+        <v>2</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -8331,10 +8598,34 @@
         <v>2</v>
       </c>
       <c r="C193" s="3">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>1</v>
       </c>
       <c r="G193">
         <v>0</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -8351,9 +8642,33 @@
         <v>3</v>
       </c>
       <c r="C194" s="3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0</v>
       </c>
       <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
         <v>0</v>
       </c>
       <c r="N194">
@@ -8371,10 +8686,34 @@
         <v>3</v>
       </c>
       <c r="C195" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+      <c r="E195" s="3">
         <v>2</v>
       </c>
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
       <c r="G195">
         <v>0</v>
+      </c>
+      <c r="I195" s="3">
+        <v>1</v>
+      </c>
+      <c r="J195" s="3">
+        <v>0</v>
+      </c>
+      <c r="K195" s="3">
+        <v>0</v>
+      </c>
+      <c r="L195" s="3">
+        <v>0</v>
+      </c>
+      <c r="M195" s="3">
+        <v>1</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -8391,9 +8730,33 @@
         <v>3</v>
       </c>
       <c r="C196" s="3">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1</v>
       </c>
       <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0</v>
+      </c>
+      <c r="J196" s="3">
+        <v>0</v>
+      </c>
+      <c r="K196" s="3">
+        <v>0</v>
+      </c>
+      <c r="L196" s="3">
+        <v>0</v>
+      </c>
+      <c r="M196" s="3">
         <v>0</v>
       </c>
       <c r="N196">
@@ -8411,9 +8774,33 @@
         <v>3</v>
       </c>
       <c r="C197" s="3">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3">
+        <v>1</v>
       </c>
       <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="I197" s="3">
+        <v>0</v>
+      </c>
+      <c r="J197" s="3">
+        <v>0</v>
+      </c>
+      <c r="K197" s="3">
+        <v>0</v>
+      </c>
+      <c r="L197" s="3">
+        <v>0</v>
+      </c>
+      <c r="M197" s="3">
         <v>0</v>
       </c>
       <c r="N197">
@@ -8431,9 +8818,33 @@
         <v>3</v>
       </c>
       <c r="C198" s="3">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0</v>
       </c>
       <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0</v>
+      </c>
+      <c r="J198" s="3">
+        <v>0</v>
+      </c>
+      <c r="K198" s="3">
+        <v>1</v>
+      </c>
+      <c r="L198" s="3">
+        <v>1</v>
+      </c>
+      <c r="M198" s="3">
         <v>0</v>
       </c>
       <c r="N198">
@@ -8451,9 +8862,33 @@
         <v>3</v>
       </c>
       <c r="C199" s="3">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
       </c>
       <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0</v>
+      </c>
+      <c r="J199" s="3">
+        <v>0</v>
+      </c>
+      <c r="K199" s="3">
+        <v>0</v>
+      </c>
+      <c r="L199" s="3">
+        <v>0</v>
+      </c>
+      <c r="M199" s="3">
         <v>0</v>
       </c>
       <c r="N199">
@@ -8471,9 +8906,33 @@
         <v>4</v>
       </c>
       <c r="C200" s="3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
       </c>
       <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0</v>
+      </c>
+      <c r="J200" s="3">
+        <v>1</v>
+      </c>
+      <c r="K200" s="3">
+        <v>0</v>
+      </c>
+      <c r="L200" s="3">
+        <v>0</v>
+      </c>
+      <c r="M200" s="3">
         <v>0</v>
       </c>
       <c r="N200">
@@ -8491,9 +8950,33 @@
         <v>4</v>
       </c>
       <c r="C201" s="3">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
       </c>
       <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="I201" s="3">
+        <v>0</v>
+      </c>
+      <c r="J201" s="3">
+        <v>0</v>
+      </c>
+      <c r="K201" s="3">
+        <v>0</v>
+      </c>
+      <c r="L201" s="3">
+        <v>0</v>
+      </c>
+      <c r="M201" s="3">
         <v>0</v>
       </c>
       <c r="N201">
@@ -8511,9 +8994,33 @@
         <v>4</v>
       </c>
       <c r="C202" s="3">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1</v>
       </c>
       <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="I202" s="3">
+        <v>0</v>
+      </c>
+      <c r="J202" s="3">
+        <v>0</v>
+      </c>
+      <c r="K202" s="3">
+        <v>0</v>
+      </c>
+      <c r="L202" s="3">
+        <v>0</v>
+      </c>
+      <c r="M202" s="3">
         <v>0</v>
       </c>
       <c r="N202">
@@ -8531,10 +9038,34 @@
         <v>4</v>
       </c>
       <c r="C203" s="3">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>1</v>
       </c>
       <c r="G203">
         <v>0</v>
+      </c>
+      <c r="I203" s="3">
+        <v>0</v>
+      </c>
+      <c r="J203" s="3">
+        <v>0</v>
+      </c>
+      <c r="K203" s="3">
+        <v>0</v>
+      </c>
+      <c r="L203" s="3">
+        <v>0</v>
+      </c>
+      <c r="M203" s="3">
+        <v>1</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -8551,9 +9082,33 @@
         <v>4</v>
       </c>
       <c r="C204" s="3">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0</v>
       </c>
       <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0</v>
+      </c>
+      <c r="J204" s="3">
+        <v>0</v>
+      </c>
+      <c r="K204" s="3">
+        <v>1</v>
+      </c>
+      <c r="L204" s="3">
+        <v>0</v>
+      </c>
+      <c r="M204" s="3">
         <v>0</v>
       </c>
       <c r="N204">
@@ -8571,9 +9126,33 @@
         <v>4</v>
       </c>
       <c r="C205" s="3">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
       </c>
       <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0</v>
+      </c>
+      <c r="J205" s="3">
+        <v>0</v>
+      </c>
+      <c r="K205" s="3">
+        <v>0</v>
+      </c>
+      <c r="L205" s="3">
+        <v>0</v>
+      </c>
+      <c r="M205" s="3">
         <v>0</v>
       </c>
       <c r="N205">
@@ -8591,9 +9170,33 @@
         <v>5</v>
       </c>
       <c r="C206" s="3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0</v>
       </c>
       <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0</v>
+      </c>
+      <c r="J206" s="3">
+        <v>1</v>
+      </c>
+      <c r="K206" s="3">
+        <v>0</v>
+      </c>
+      <c r="L206" s="3">
+        <v>0</v>
+      </c>
+      <c r="M206" s="3">
         <v>0</v>
       </c>
       <c r="N206">
@@ -8611,9 +9214,33 @@
         <v>5</v>
       </c>
       <c r="C207" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207">
         <v>2</v>
       </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
       <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0</v>
+      </c>
+      <c r="K207" s="3">
+        <v>0</v>
+      </c>
+      <c r="L207" s="3">
+        <v>0</v>
+      </c>
+      <c r="M207" s="3">
         <v>0</v>
       </c>
       <c r="N207">
@@ -8631,10 +9258,34 @@
         <v>5</v>
       </c>
       <c r="C208" s="3">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0</v>
+      </c>
+      <c r="J208" s="3">
+        <v>1</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0</v>
+      </c>
+      <c r="L208" s="3">
+        <v>0</v>
+      </c>
+      <c r="M208" s="3">
+        <v>1</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -8651,9 +9302,33 @@
         <v>5</v>
       </c>
       <c r="C209" s="3">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="3">
+        <v>1</v>
       </c>
       <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0</v>
+      </c>
+      <c r="J209" s="3">
+        <v>0</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+      <c r="L209" s="3">
+        <v>0</v>
+      </c>
+      <c r="M209" s="3">
         <v>0</v>
       </c>
       <c r="N209">
@@ -8671,10 +9346,34 @@
         <v>5</v>
       </c>
       <c r="C210" s="3">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
       </c>
       <c r="G210">
         <v>0</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0</v>
+      </c>
+      <c r="J210" s="3">
+        <v>1</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="L210" s="3">
+        <v>0</v>
+      </c>
+      <c r="M210" s="3">
+        <v>1</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -8691,9 +9390,33 @@
         <v>5</v>
       </c>
       <c r="C211" s="3">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
       </c>
       <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0</v>
+      </c>
+      <c r="J211" s="3">
+        <v>1</v>
+      </c>
+      <c r="K211" s="3">
+        <v>0</v>
+      </c>
+      <c r="L211" s="3">
+        <v>1</v>
+      </c>
+      <c r="M211" s="3">
         <v>0</v>
       </c>
       <c r="N211">
@@ -8711,9 +9434,33 @@
         <v>6</v>
       </c>
       <c r="C212" s="3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0</v>
       </c>
       <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0</v>
+      </c>
+      <c r="J212" s="3">
+        <v>0</v>
+      </c>
+      <c r="K212" s="3">
+        <v>0</v>
+      </c>
+      <c r="L212" s="3">
+        <v>0</v>
+      </c>
+      <c r="M212" s="3">
         <v>0</v>
       </c>
       <c r="N212">
@@ -8731,9 +9478,33 @@
         <v>6</v>
       </c>
       <c r="C213" s="3">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0</v>
       </c>
       <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+      <c r="J213" s="3">
+        <v>0</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0</v>
+      </c>
+      <c r="L213" s="3">
+        <v>0</v>
+      </c>
+      <c r="M213" s="3">
         <v>0</v>
       </c>
       <c r="N213">
@@ -8751,9 +9522,33 @@
         <v>6</v>
       </c>
       <c r="C214" s="3">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0</v>
       </c>
       <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0</v>
+      </c>
+      <c r="J214" s="3">
+        <v>0</v>
+      </c>
+      <c r="K214" s="3">
+        <v>0</v>
+      </c>
+      <c r="L214" s="3">
+        <v>0</v>
+      </c>
+      <c r="M214" s="3">
         <v>0</v>
       </c>
       <c r="N214">
@@ -8771,16 +9566,40 @@
         <v>6</v>
       </c>
       <c r="C215" s="3">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D215" s="3">
+        <v>1</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
+      <c r="I215" s="3">
+        <v>0</v>
+      </c>
+      <c r="J215" s="3">
+        <v>1</v>
+      </c>
+      <c r="K215" s="3">
+        <v>0</v>
+      </c>
+      <c r="L215" s="3">
+        <v>0</v>
+      </c>
+      <c r="M215" s="3">
+        <v>1</v>
+      </c>
       <c r="N215">
         <v>0</v>
       </c>
       <c r="O215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
@@ -8791,9 +9610,33 @@
         <v>6</v>
       </c>
       <c r="C216" s="3">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0</v>
       </c>
       <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="I216" s="3">
+        <v>0</v>
+      </c>
+      <c r="J216" s="3">
+        <v>0</v>
+      </c>
+      <c r="K216" s="3">
+        <v>0</v>
+      </c>
+      <c r="L216" s="3">
+        <v>0</v>
+      </c>
+      <c r="M216" s="3">
         <v>0</v>
       </c>
       <c r="N216">
@@ -8811,72 +9654,3227 @@
         <v>6</v>
       </c>
       <c r="C217" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="I217" s="3">
+        <v>0</v>
+      </c>
+      <c r="J217" s="3">
+        <v>0</v>
+      </c>
+      <c r="K217" s="3">
+        <v>0</v>
+      </c>
+      <c r="L217" s="3">
+        <v>0</v>
+      </c>
+      <c r="M217" s="3">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>19</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+      <c r="C218" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>2</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0</v>
+      </c>
+      <c r="J218" s="3">
+        <v>0</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0</v>
+      </c>
+      <c r="L218" s="3">
+        <v>0</v>
+      </c>
+      <c r="M218" s="3">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>19</v>
+      </c>
+      <c r="B219" s="3">
+        <v>1</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0</v>
+      </c>
+      <c r="L219" s="3">
+        <v>0</v>
+      </c>
+      <c r="M219" s="3">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>19</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1</v>
+      </c>
+      <c r="C220" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0</v>
+      </c>
+      <c r="J220" s="3">
+        <v>0</v>
+      </c>
+      <c r="K220" s="3">
+        <v>0</v>
+      </c>
+      <c r="L220" s="3">
+        <v>0</v>
+      </c>
+      <c r="M220" s="3">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>19</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1</v>
+      </c>
+      <c r="C221" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0</v>
+      </c>
+      <c r="J221" s="3">
+        <v>0</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+      <c r="M221" s="3">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>19</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1</v>
+      </c>
+      <c r="C222" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0</v>
+      </c>
+      <c r="J222" s="3">
+        <v>0</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0</v>
+      </c>
+      <c r="L222" s="3">
+        <v>0</v>
+      </c>
+      <c r="M222" s="3">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>19</v>
+      </c>
+      <c r="B223" s="3">
+        <v>1</v>
+      </c>
+      <c r="C223" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1</v>
+      </c>
+      <c r="E223" s="3">
+        <v>2</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="L223" s="3">
+        <v>0</v>
+      </c>
+      <c r="M223" s="3">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>19</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D224" s="3">
+        <v>1</v>
+      </c>
+      <c r="E224" s="3">
+        <v>3</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="I224" s="3">
+        <v>1</v>
+      </c>
+      <c r="J224" s="3">
+        <v>0</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="L224" s="3">
+        <v>1</v>
+      </c>
+      <c r="M224" s="3">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>19</v>
+      </c>
+      <c r="B225" s="3">
+        <v>2</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0</v>
+      </c>
+      <c r="K225" s="3">
+        <v>0</v>
+      </c>
+      <c r="L225" s="3">
+        <v>0</v>
+      </c>
+      <c r="M225" s="3">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>19</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>2</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>0</v>
+      </c>
+      <c r="M226" s="3">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>19</v>
+      </c>
+      <c r="B227" s="3">
+        <v>2</v>
+      </c>
+      <c r="C227" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0</v>
+      </c>
+      <c r="J227" s="3">
+        <v>1</v>
+      </c>
+      <c r="K227" s="3">
+        <v>0</v>
+      </c>
+      <c r="L227" s="3">
+        <v>0</v>
+      </c>
+      <c r="M227" s="3">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>19</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2</v>
+      </c>
+      <c r="C228" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>0</v>
+      </c>
+      <c r="L228" s="3">
+        <v>0</v>
+      </c>
+      <c r="M228" s="3">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>19</v>
+      </c>
+      <c r="B229" s="3">
+        <v>2</v>
+      </c>
+      <c r="C229" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0</v>
+      </c>
+      <c r="J229" s="3">
+        <v>0</v>
+      </c>
+      <c r="K229" s="3">
+        <v>0</v>
+      </c>
+      <c r="L229" s="3">
+        <v>0</v>
+      </c>
+      <c r="M229" s="3">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>19</v>
+      </c>
+      <c r="B230" s="3">
+        <v>3</v>
+      </c>
+      <c r="C230" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1</v>
+      </c>
+      <c r="E230" s="3">
+        <v>3</v>
+      </c>
+      <c r="F230" s="3">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="I230" s="3">
+        <v>0</v>
+      </c>
+      <c r="J230" s="3">
+        <v>1</v>
+      </c>
+      <c r="K230" s="3">
+        <v>0</v>
+      </c>
+      <c r="L230" s="3">
+        <v>0</v>
+      </c>
+      <c r="M230" s="3">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>19</v>
+      </c>
+      <c r="B231" s="3">
+        <v>3</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D231" s="3">
+        <v>0</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="I231" s="3">
+        <v>0</v>
+      </c>
+      <c r="J231" s="3">
+        <v>0</v>
+      </c>
+      <c r="K231" s="3">
+        <v>0</v>
+      </c>
+      <c r="L231" s="3">
+        <v>0</v>
+      </c>
+      <c r="M231" s="3">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>19</v>
+      </c>
+      <c r="B232" s="3">
+        <v>3</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D232" s="3">
+        <v>1</v>
+      </c>
+      <c r="E232" s="3">
+        <v>2</v>
+      </c>
+      <c r="F232" s="3">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="I232" s="3">
+        <v>0</v>
+      </c>
+      <c r="J232" s="3">
+        <v>0</v>
+      </c>
+      <c r="K232" s="3">
+        <v>0</v>
+      </c>
+      <c r="L232" s="3">
+        <v>1</v>
+      </c>
+      <c r="M232" s="3">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>19</v>
+      </c>
+      <c r="B233" s="3">
+        <v>3</v>
+      </c>
+      <c r="C233" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D233" s="3">
+        <v>1</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="I233" s="3">
+        <v>0</v>
+      </c>
+      <c r="J233" s="3">
+        <v>0</v>
+      </c>
+      <c r="K233" s="3">
+        <v>0</v>
+      </c>
+      <c r="L233" s="3">
+        <v>0</v>
+      </c>
+      <c r="M233" s="3">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>19</v>
+      </c>
+      <c r="B234" s="3">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="I234" s="3">
+        <v>0</v>
+      </c>
+      <c r="J234" s="3">
+        <v>0</v>
+      </c>
+      <c r="K234" s="3">
+        <v>0</v>
+      </c>
+      <c r="L234" s="3">
+        <v>0</v>
+      </c>
+      <c r="M234" s="3">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>19</v>
+      </c>
+      <c r="B235" s="3">
+        <v>3</v>
+      </c>
+      <c r="C235" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D235" s="3">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" s="3">
+        <v>2</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="I235" s="3">
+        <v>0</v>
+      </c>
+      <c r="J235" s="3">
+        <v>1</v>
+      </c>
+      <c r="K235" s="3">
+        <v>0</v>
+      </c>
+      <c r="L235" s="3">
+        <v>0</v>
+      </c>
+      <c r="M235" s="3">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>19</v>
+      </c>
+      <c r="B236" s="3">
+        <v>4</v>
+      </c>
+      <c r="C236" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D236" s="3">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" s="3">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="3">
+        <v>0</v>
+      </c>
+      <c r="J236" s="3">
+        <v>0</v>
+      </c>
+      <c r="K236" s="3">
+        <v>0</v>
+      </c>
+      <c r="L236" s="3">
+        <v>1</v>
+      </c>
+      <c r="M236" s="3">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>19</v>
+      </c>
+      <c r="B237" s="3">
+        <v>4</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" s="3">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="I237" s="3">
+        <v>0</v>
+      </c>
+      <c r="J237" s="3">
+        <v>0</v>
+      </c>
+      <c r="K237" s="3">
+        <v>0</v>
+      </c>
+      <c r="L237" s="3">
+        <v>0</v>
+      </c>
+      <c r="M237" s="3">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>19</v>
+      </c>
+      <c r="B238" s="3">
+        <v>4</v>
+      </c>
+      <c r="C238" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="I238" s="3">
+        <v>0</v>
+      </c>
+      <c r="J238" s="3">
+        <v>0</v>
+      </c>
+      <c r="K238" s="3">
+        <v>0</v>
+      </c>
+      <c r="L238" s="3">
+        <v>0</v>
+      </c>
+      <c r="M238" s="3">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>19</v>
+      </c>
+      <c r="B239" s="3">
+        <v>4</v>
+      </c>
+      <c r="C239" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D239" s="3">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" s="3">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="I239" s="3">
+        <v>0</v>
+      </c>
+      <c r="J239" s="3">
+        <v>1</v>
+      </c>
+      <c r="K239" s="3">
+        <v>0</v>
+      </c>
+      <c r="L239" s="3">
+        <v>0</v>
+      </c>
+      <c r="M239" s="3">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>19</v>
+      </c>
+      <c r="B240" s="3">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D240" s="3">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>1.2</v>
+      </c>
+      <c r="F240" s="3">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="I240" s="3">
+        <v>0</v>
+      </c>
+      <c r="J240" s="3">
+        <v>1</v>
+      </c>
+      <c r="K240" s="3">
+        <v>0</v>
+      </c>
+      <c r="L240" s="3">
+        <v>0</v>
+      </c>
+      <c r="M240" s="3">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>19</v>
+      </c>
+      <c r="B241" s="3">
+        <v>4</v>
+      </c>
+      <c r="C241" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" s="3">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="I241" s="3">
+        <v>0</v>
+      </c>
+      <c r="J241" s="3">
+        <v>0</v>
+      </c>
+      <c r="K241" s="3">
+        <v>0</v>
+      </c>
+      <c r="L241" s="3">
+        <v>0</v>
+      </c>
+      <c r="M241" s="3">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>19</v>
+      </c>
+      <c r="B242" s="3">
+        <v>5</v>
+      </c>
+      <c r="C242" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="I242" s="3">
+        <v>0</v>
+      </c>
+      <c r="J242" s="3">
+        <v>0</v>
+      </c>
+      <c r="K242" s="3">
+        <v>0</v>
+      </c>
+      <c r="L242" s="3">
+        <v>0</v>
+      </c>
+      <c r="M242" s="3">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>19</v>
+      </c>
+      <c r="B243" s="3">
+        <v>5</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="I243" s="3">
+        <v>0</v>
+      </c>
+      <c r="J243" s="3">
+        <v>0</v>
+      </c>
+      <c r="K243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L243" s="3">
+        <v>0</v>
+      </c>
+      <c r="M243" s="3">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>19</v>
+      </c>
+      <c r="B244" s="3">
+        <v>5</v>
+      </c>
+      <c r="C244" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" s="3">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="I244" s="3">
+        <v>0</v>
+      </c>
+      <c r="J244" s="3">
+        <v>0</v>
+      </c>
+      <c r="K244" s="3">
+        <v>0</v>
+      </c>
+      <c r="L244" s="3">
+        <v>0</v>
+      </c>
+      <c r="M244" s="3">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>19</v>
+      </c>
+      <c r="B245" s="3">
+        <v>5</v>
+      </c>
+      <c r="C245" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="I245" s="3">
+        <v>1</v>
+      </c>
+      <c r="J245" s="3">
+        <v>0</v>
+      </c>
+      <c r="K245" s="3">
+        <v>0</v>
+      </c>
+      <c r="L245" s="3">
+        <v>0</v>
+      </c>
+      <c r="M245" s="3">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>19</v>
+      </c>
+      <c r="B246" s="3">
+        <v>5</v>
+      </c>
+      <c r="C246" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="I246" s="3">
+        <v>0</v>
+      </c>
+      <c r="J246" s="3">
+        <v>0</v>
+      </c>
+      <c r="K246" s="3">
+        <v>0</v>
+      </c>
+      <c r="L246" s="3">
+        <v>0</v>
+      </c>
+      <c r="M246" s="3">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>19</v>
+      </c>
+      <c r="B247" s="3">
+        <v>5</v>
+      </c>
+      <c r="C247" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0</v>
+      </c>
+      <c r="E247" s="3">
+        <v>2</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="I247" s="3">
+        <v>0</v>
+      </c>
+      <c r="J247" s="3">
+        <v>0</v>
+      </c>
+      <c r="K247" s="3">
+        <v>0</v>
+      </c>
+      <c r="L247" s="3">
+        <v>0</v>
+      </c>
+      <c r="M247" s="3">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>19</v>
+      </c>
+      <c r="B248" s="3">
         <v>6</v>
       </c>
-      <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="N217">
-        <v>0</v>
-      </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="N218">
-        <v>0</v>
-      </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="N219">
-        <v>0</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="N220">
-        <v>0</v>
-      </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="N221">
-        <v>0</v>
-      </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G222">
-        <v>0</v>
-      </c>
-      <c r="N222">
-        <v>0</v>
-      </c>
-      <c r="O222">
-        <v>0</v>
-      </c>
+      <c r="C248" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D248" s="3">
+        <v>1</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="I248" s="3">
+        <v>0</v>
+      </c>
+      <c r="J248" s="3">
+        <v>0</v>
+      </c>
+      <c r="K248" s="3">
+        <v>0</v>
+      </c>
+      <c r="L248" s="3">
+        <v>0</v>
+      </c>
+      <c r="M248" s="3">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>19</v>
+      </c>
+      <c r="B249" s="3">
+        <v>6</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="I249" s="3">
+        <v>0</v>
+      </c>
+      <c r="J249" s="3">
+        <v>0</v>
+      </c>
+      <c r="K249" s="3">
+        <v>0</v>
+      </c>
+      <c r="L249" s="3">
+        <v>0</v>
+      </c>
+      <c r="M249" s="3">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>19</v>
+      </c>
+      <c r="B250" s="3">
+        <v>6</v>
+      </c>
+      <c r="C250" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0</v>
+      </c>
+      <c r="E250" s="3">
+        <v>2</v>
+      </c>
+      <c r="F250" s="3">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="I250" s="3">
+        <v>0</v>
+      </c>
+      <c r="J250" s="3">
+        <v>0</v>
+      </c>
+      <c r="K250" s="3">
+        <v>0</v>
+      </c>
+      <c r="L250" s="3">
+        <v>0</v>
+      </c>
+      <c r="M250" s="3">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>19</v>
+      </c>
+      <c r="B251" s="3">
+        <v>6</v>
+      </c>
+      <c r="C251" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1</v>
+      </c>
+      <c r="E251" s="3">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="I251" s="3">
+        <v>0</v>
+      </c>
+      <c r="J251" s="3">
+        <v>1</v>
+      </c>
+      <c r="K251" s="3">
+        <v>0</v>
+      </c>
+      <c r="L251" s="3">
+        <v>0</v>
+      </c>
+      <c r="M251" s="3">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>19</v>
+      </c>
+      <c r="B252" s="3">
+        <v>6</v>
+      </c>
+      <c r="C252" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" s="3">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="I252" s="3">
+        <v>0</v>
+      </c>
+      <c r="J252" s="3">
+        <v>1</v>
+      </c>
+      <c r="K252" s="3">
+        <v>0</v>
+      </c>
+      <c r="L252" s="3">
+        <v>0</v>
+      </c>
+      <c r="M252" s="3">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>19</v>
+      </c>
+      <c r="B253" s="3">
+        <v>6</v>
+      </c>
+      <c r="C253" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1</v>
+      </c>
+      <c r="F253" s="3">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="I253" s="3">
+        <v>0</v>
+      </c>
+      <c r="J253" s="3">
+        <v>0</v>
+      </c>
+      <c r="K253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L253" s="3">
+        <v>0</v>
+      </c>
+      <c r="M253" s="3">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>20</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1</v>
+      </c>
+      <c r="C254" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0</v>
+      </c>
+      <c r="E254" s="3">
+        <v>0</v>
+      </c>
+      <c r="F254" s="3">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="I254" s="3">
+        <v>0</v>
+      </c>
+      <c r="J254" s="3">
+        <v>0</v>
+      </c>
+      <c r="K254" s="3">
+        <v>0</v>
+      </c>
+      <c r="L254" s="3">
+        <v>0</v>
+      </c>
+      <c r="M254" s="3">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>20</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1</v>
+      </c>
+      <c r="E255" s="3">
+        <v>0</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="I255" s="3">
+        <v>0</v>
+      </c>
+      <c r="J255" s="3">
+        <v>1</v>
+      </c>
+      <c r="K255" s="3">
+        <v>0</v>
+      </c>
+      <c r="L255" s="3">
+        <v>1</v>
+      </c>
+      <c r="M255" s="3">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>20</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1</v>
+      </c>
+      <c r="C256" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1</v>
+      </c>
+      <c r="E256" s="3">
+        <v>0</v>
+      </c>
+      <c r="F256" s="3">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="I256" s="3">
+        <v>0</v>
+      </c>
+      <c r="J256" s="3">
+        <v>1</v>
+      </c>
+      <c r="K256" s="3">
+        <v>0</v>
+      </c>
+      <c r="L256" s="3">
+        <v>1</v>
+      </c>
+      <c r="M256" s="3">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>20</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+      <c r="C257" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0</v>
+      </c>
+      <c r="E257" s="3">
+        <v>2</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="I257" s="3">
+        <v>0</v>
+      </c>
+      <c r="J257" s="3">
+        <v>1</v>
+      </c>
+      <c r="K257" s="3">
+        <v>0</v>
+      </c>
+      <c r="L257" s="3">
+        <v>1</v>
+      </c>
+      <c r="M257" s="3">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>20</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1</v>
+      </c>
+      <c r="C258" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D258" s="3">
+        <v>0</v>
+      </c>
+      <c r="E258" s="3">
+        <v>0</v>
+      </c>
+      <c r="F258" s="3">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="I258" s="3">
+        <v>0</v>
+      </c>
+      <c r="J258" s="3">
+        <v>0</v>
+      </c>
+      <c r="K258" s="3">
+        <v>0</v>
+      </c>
+      <c r="L258" s="3">
+        <v>0</v>
+      </c>
+      <c r="M258" s="3">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>20</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+      <c r="C259" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0</v>
+      </c>
+      <c r="F259" s="3">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="I259" s="3">
+        <v>0</v>
+      </c>
+      <c r="J259" s="3">
+        <v>0</v>
+      </c>
+      <c r="K259" s="3">
+        <v>0</v>
+      </c>
+      <c r="L259" s="3">
+        <v>0</v>
+      </c>
+      <c r="M259" s="3">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>20</v>
+      </c>
+      <c r="B260" s="3">
+        <v>2</v>
+      </c>
+      <c r="C260" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="I260" s="3">
+        <v>0</v>
+      </c>
+      <c r="J260" s="3">
+        <v>0</v>
+      </c>
+      <c r="K260" s="3">
+        <v>0</v>
+      </c>
+      <c r="L260" s="3">
+        <v>0</v>
+      </c>
+      <c r="M260" s="3">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>20</v>
+      </c>
+      <c r="B261" s="3">
+        <v>2</v>
+      </c>
+      <c r="C261" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="I261" s="3">
+        <v>0</v>
+      </c>
+      <c r="J261" s="3">
+        <v>0</v>
+      </c>
+      <c r="K261" s="3">
+        <v>0</v>
+      </c>
+      <c r="L261" s="3">
+        <v>0</v>
+      </c>
+      <c r="M261" s="3">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>20</v>
+      </c>
+      <c r="B262" s="3">
+        <v>2</v>
+      </c>
+      <c r="C262" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F262" s="3">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="I262" s="3">
+        <v>0</v>
+      </c>
+      <c r="J262" s="3">
+        <v>1</v>
+      </c>
+      <c r="K262" s="3">
+        <v>0</v>
+      </c>
+      <c r="L262" s="3">
+        <v>1</v>
+      </c>
+      <c r="M262" s="3">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>20</v>
+      </c>
+      <c r="B263" s="3">
+        <v>2</v>
+      </c>
+      <c r="C263" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F263" s="3">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="I263" s="3">
+        <v>0</v>
+      </c>
+      <c r="J263" s="3">
+        <v>0</v>
+      </c>
+      <c r="K263" s="3">
+        <v>0</v>
+      </c>
+      <c r="L263" s="3">
+        <v>1</v>
+      </c>
+      <c r="M263" s="3">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>20</v>
+      </c>
+      <c r="B264" s="3">
+        <v>2</v>
+      </c>
+      <c r="C264" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="I264" s="3">
+        <v>0</v>
+      </c>
+      <c r="J264" s="3">
+        <v>0</v>
+      </c>
+      <c r="K264" s="3">
+        <v>0</v>
+      </c>
+      <c r="L264" s="3">
+        <v>0</v>
+      </c>
+      <c r="M264" s="3">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>20</v>
+      </c>
+      <c r="B265" s="3">
+        <v>2</v>
+      </c>
+      <c r="C265" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D265" s="3">
+        <v>1</v>
+      </c>
+      <c r="E265" s="3">
+        <v>2</v>
+      </c>
+      <c r="F265" s="3">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="I265" s="3">
+        <v>0</v>
+      </c>
+      <c r="J265" s="3">
+        <v>1</v>
+      </c>
+      <c r="K265" s="3">
+        <v>0</v>
+      </c>
+      <c r="L265" s="3">
+        <v>0</v>
+      </c>
+      <c r="M265" s="3">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>20</v>
+      </c>
+      <c r="B266" s="3">
+        <v>3</v>
+      </c>
+      <c r="C266" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="I266" s="3">
+        <v>0</v>
+      </c>
+      <c r="J266" s="3">
+        <v>0</v>
+      </c>
+      <c r="K266" s="3">
+        <v>0</v>
+      </c>
+      <c r="L266" s="3">
+        <v>0</v>
+      </c>
+      <c r="M266" s="3">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>20</v>
+      </c>
+      <c r="B267" s="3">
+        <v>3</v>
+      </c>
+      <c r="C267" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0</v>
+      </c>
+      <c r="E267" s="3">
+        <v>2</v>
+      </c>
+      <c r="F267" s="3">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="I267" s="3">
+        <v>0</v>
+      </c>
+      <c r="J267" s="3">
+        <v>0</v>
+      </c>
+      <c r="K267" s="3">
+        <v>0</v>
+      </c>
+      <c r="L267" s="3">
+        <v>0</v>
+      </c>
+      <c r="M267" s="3">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>20</v>
+      </c>
+      <c r="B268" s="3">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1</v>
+      </c>
+      <c r="F268" s="3">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="I268" s="3">
+        <v>0</v>
+      </c>
+      <c r="J268" s="3">
+        <v>0</v>
+      </c>
+      <c r="K268" s="3">
+        <v>1</v>
+      </c>
+      <c r="L268" s="3">
+        <v>1</v>
+      </c>
+      <c r="M268" s="3">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>20</v>
+      </c>
+      <c r="B269" s="3">
+        <v>3</v>
+      </c>
+      <c r="C269" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" s="3">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="I269" s="3">
+        <v>0</v>
+      </c>
+      <c r="J269" s="3">
+        <v>0</v>
+      </c>
+      <c r="K269" s="3">
+        <v>0</v>
+      </c>
+      <c r="L269" s="3">
+        <v>0</v>
+      </c>
+      <c r="M269" s="3">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>20</v>
+      </c>
+      <c r="B270" s="3">
+        <v>3</v>
+      </c>
+      <c r="C270" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="I270" s="3">
+        <v>0</v>
+      </c>
+      <c r="J270" s="3">
+        <v>0</v>
+      </c>
+      <c r="K270" s="3">
+        <v>0</v>
+      </c>
+      <c r="L270" s="3">
+        <v>0</v>
+      </c>
+      <c r="M270" s="3">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>20</v>
+      </c>
+      <c r="B271" s="3">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0</v>
+      </c>
+      <c r="E271" s="3">
+        <v>2</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="I271" s="3">
+        <v>0</v>
+      </c>
+      <c r="J271" s="3">
+        <v>1</v>
+      </c>
+      <c r="K271" s="3">
+        <v>0</v>
+      </c>
+      <c r="L271" s="3">
+        <v>0</v>
+      </c>
+      <c r="M271" s="3">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>20</v>
+      </c>
+      <c r="B272" s="3">
+        <v>4</v>
+      </c>
+      <c r="C272" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0</v>
+      </c>
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="I272" s="3">
+        <v>0</v>
+      </c>
+      <c r="J272" s="3">
+        <v>0</v>
+      </c>
+      <c r="K272" s="3">
+        <v>0</v>
+      </c>
+      <c r="L272" s="3">
+        <v>0</v>
+      </c>
+      <c r="M272" s="3">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>20</v>
+      </c>
+      <c r="B273" s="3">
+        <v>4</v>
+      </c>
+      <c r="C273" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0</v>
+      </c>
+      <c r="E273" s="3">
+        <v>1</v>
+      </c>
+      <c r="F273" s="3">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="I273" s="3">
+        <v>0</v>
+      </c>
+      <c r="J273" s="3">
+        <v>0</v>
+      </c>
+      <c r="K273" s="3">
+        <v>0</v>
+      </c>
+      <c r="L273" s="3">
+        <v>0</v>
+      </c>
+      <c r="M273" s="3">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>20</v>
+      </c>
+      <c r="B274" s="3">
+        <v>4</v>
+      </c>
+      <c r="C274" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D274" s="3">
+        <v>0</v>
+      </c>
+      <c r="E274" s="3">
+        <v>2</v>
+      </c>
+      <c r="F274" s="3">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="I274" s="3">
+        <v>0</v>
+      </c>
+      <c r="J274" s="3">
+        <v>0</v>
+      </c>
+      <c r="K274" s="3">
+        <v>0</v>
+      </c>
+      <c r="L274" s="3">
+        <v>0</v>
+      </c>
+      <c r="M274" s="3">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>20</v>
+      </c>
+      <c r="B275" s="3">
+        <v>4</v>
+      </c>
+      <c r="C275" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0</v>
+      </c>
+      <c r="E275" s="3">
+        <v>1</v>
+      </c>
+      <c r="F275" s="3">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="I275" s="3">
+        <v>0</v>
+      </c>
+      <c r="J275" s="3">
+        <v>0</v>
+      </c>
+      <c r="K275" s="3">
+        <v>0</v>
+      </c>
+      <c r="L275" s="3">
+        <v>0</v>
+      </c>
+      <c r="M275" s="3">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>20</v>
+      </c>
+      <c r="B276" s="3">
+        <v>4</v>
+      </c>
+      <c r="C276" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0</v>
+      </c>
+      <c r="E276" s="3">
+        <v>0</v>
+      </c>
+      <c r="F276" s="3">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="I276" s="3">
+        <v>0</v>
+      </c>
+      <c r="J276" s="3">
+        <v>0</v>
+      </c>
+      <c r="K276" s="3">
+        <v>0</v>
+      </c>
+      <c r="L276" s="3">
+        <v>0</v>
+      </c>
+      <c r="M276" s="3">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>20</v>
+      </c>
+      <c r="B277" s="3">
+        <v>4</v>
+      </c>
+      <c r="C277" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0</v>
+      </c>
+      <c r="E277" s="3">
+        <v>2</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="I277" s="3">
+        <v>0</v>
+      </c>
+      <c r="J277" s="3">
+        <v>0</v>
+      </c>
+      <c r="K277" s="3">
+        <v>0</v>
+      </c>
+      <c r="L277" s="3">
+        <v>0</v>
+      </c>
+      <c r="M277" s="3">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>20</v>
+      </c>
+      <c r="B278" s="3">
+        <v>5</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0</v>
+      </c>
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="I278" s="3">
+        <v>0</v>
+      </c>
+      <c r="J278" s="3">
+        <v>0</v>
+      </c>
+      <c r="K278" s="3">
+        <v>0</v>
+      </c>
+      <c r="L278" s="3">
+        <v>0</v>
+      </c>
+      <c r="M278" s="3">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>20</v>
+      </c>
+      <c r="B279" s="3">
+        <v>5</v>
+      </c>
+      <c r="C279" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D279" s="3">
+        <v>0</v>
+      </c>
+      <c r="E279" s="3">
+        <v>0</v>
+      </c>
+      <c r="F279" s="3">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="3">
+        <v>0</v>
+      </c>
+      <c r="J279" s="3">
+        <v>0</v>
+      </c>
+      <c r="K279" s="3">
+        <v>0</v>
+      </c>
+      <c r="L279" s="3">
+        <v>0</v>
+      </c>
+      <c r="M279" s="3">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>20</v>
+      </c>
+      <c r="B280" s="3">
+        <v>5</v>
+      </c>
+      <c r="C280" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D280" s="3">
+        <v>1</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="3">
+        <v>1</v>
+      </c>
+      <c r="J280" s="3">
+        <v>0</v>
+      </c>
+      <c r="K280" s="3">
+        <v>0</v>
+      </c>
+      <c r="L280" s="3">
+        <v>0</v>
+      </c>
+      <c r="M280" s="3">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>20</v>
+      </c>
+      <c r="B281" s="3">
+        <v>5</v>
+      </c>
+      <c r="C281" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281" s="3">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="3">
+        <v>0</v>
+      </c>
+      <c r="J281" s="3">
+        <v>0</v>
+      </c>
+      <c r="K281" s="3">
+        <v>0</v>
+      </c>
+      <c r="L281" s="3">
+        <v>0</v>
+      </c>
+      <c r="M281" s="3">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>20</v>
+      </c>
+      <c r="B282" s="3">
+        <v>5</v>
+      </c>
+      <c r="C282" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="3">
+        <v>0</v>
+      </c>
+      <c r="J282" s="3">
+        <v>0</v>
+      </c>
+      <c r="K282" s="3">
+        <v>0</v>
+      </c>
+      <c r="L282" s="3">
+        <v>0</v>
+      </c>
+      <c r="M282" s="3">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>20</v>
+      </c>
+      <c r="B283" s="3">
+        <v>5</v>
+      </c>
+      <c r="C283" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0</v>
+      </c>
+      <c r="E283" s="3">
+        <v>0</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="3">
+        <v>0</v>
+      </c>
+      <c r="J283" s="3">
+        <v>0</v>
+      </c>
+      <c r="K283" s="3">
+        <v>0</v>
+      </c>
+      <c r="L283" s="3">
+        <v>0</v>
+      </c>
+      <c r="M283" s="3">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>20</v>
+      </c>
+      <c r="B284" s="3">
+        <v>6</v>
+      </c>
+      <c r="C284" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="I284" s="3">
+        <v>0</v>
+      </c>
+      <c r="J284" s="3">
+        <v>0</v>
+      </c>
+      <c r="K284" s="3">
+        <v>0</v>
+      </c>
+      <c r="L284" s="3">
+        <v>0</v>
+      </c>
+      <c r="M284" s="3">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>20</v>
+      </c>
+      <c r="B285" s="3">
+        <v>6</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F285" s="3">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="3">
+        <v>0</v>
+      </c>
+      <c r="J285" s="3">
+        <v>1</v>
+      </c>
+      <c r="K285" s="3">
+        <v>0</v>
+      </c>
+      <c r="L285" s="3">
+        <v>0</v>
+      </c>
+      <c r="M285" s="3">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>20</v>
+      </c>
+      <c r="B286" s="3">
+        <v>6</v>
+      </c>
+      <c r="C286" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D286" s="3">
+        <v>1</v>
+      </c>
+      <c r="E286" s="3">
+        <v>1</v>
+      </c>
+      <c r="F286" s="3">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="3">
+        <v>0</v>
+      </c>
+      <c r="J286" s="3">
+        <v>0</v>
+      </c>
+      <c r="K286" s="3">
+        <v>0</v>
+      </c>
+      <c r="L286" s="3">
+        <v>0</v>
+      </c>
+      <c r="M286" s="3">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>20</v>
+      </c>
+      <c r="B287" s="3">
+        <v>6</v>
+      </c>
+      <c r="C287" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D287" s="3">
+        <v>0</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="I287" s="3">
+        <v>0</v>
+      </c>
+      <c r="J287" s="3">
+        <v>0</v>
+      </c>
+      <c r="K287" s="3">
+        <v>0</v>
+      </c>
+      <c r="L287" s="3">
+        <v>0</v>
+      </c>
+      <c r="M287" s="3">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>20</v>
+      </c>
+      <c r="B288" s="3">
+        <v>6</v>
+      </c>
+      <c r="C288" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D288" s="3">
+        <v>0</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1</v>
+      </c>
+      <c r="F288" s="3">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="I288" s="3">
+        <v>0</v>
+      </c>
+      <c r="J288" s="3">
+        <v>0</v>
+      </c>
+      <c r="K288" s="3">
+        <v>0</v>
+      </c>
+      <c r="L288" s="3">
+        <v>0</v>
+      </c>
+      <c r="M288" s="3">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>20</v>
+      </c>
+      <c r="B289" s="3">
+        <v>6</v>
+      </c>
+      <c r="C289" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D289" s="3">
+        <v>0</v>
+      </c>
+      <c r="E289" s="3">
+        <v>2</v>
+      </c>
+      <c r="F289" s="3">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="3">
+        <v>0</v>
+      </c>
+      <c r="J289" s="3">
+        <v>0</v>
+      </c>
+      <c r="K289" s="3">
+        <v>0</v>
+      </c>
+      <c r="L289" s="3">
+        <v>0</v>
+      </c>
+      <c r="M289" s="3">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A295" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RABackup/Sets 13 - 23.xlsx
+++ b/RABackup/Sets 13 - 23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82342DA-AC7D-9042-8BFF-850AC689723B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DCDA9D-4082-CD48-A089-4D40DF152D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="0" windowWidth="16960" windowHeight="18000" xr2:uid="{70C324FA-C5C9-3B4E-A02A-5A5AE2D7C3F2}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{70C324FA-C5C9-3B4E-A02A-5A5AE2D7C3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Chain</t>
   </si>
@@ -461,12 +461,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6197AB0-DD2D-3F42-BFC3-1B21605CB505}">
-  <dimension ref="A1:O295"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F306" sqref="F306"/>
+      <selection pane="bottomLeft" activeCell="M397" sqref="M397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12859,22 +12859,4756 @@
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A290" s="3"/>
+      <c r="A290" s="3">
+        <v>21</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+      <c r="C290" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D290" s="3">
+        <v>1</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1</v>
+      </c>
+      <c r="F290" s="3">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="3">
+        <v>0</v>
+      </c>
+      <c r="J290" s="3">
+        <v>1</v>
+      </c>
+      <c r="K290" s="3">
+        <v>0</v>
+      </c>
+      <c r="L290" s="3">
+        <v>0</v>
+      </c>
+      <c r="M290" s="3">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A291" s="3"/>
+      <c r="A291" s="3">
+        <v>21</v>
+      </c>
+      <c r="B291" s="3">
+        <v>1</v>
+      </c>
+      <c r="C291" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0</v>
+      </c>
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+      <c r="F291" s="3">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="3">
+        <v>0</v>
+      </c>
+      <c r="J291" s="3">
+        <v>0</v>
+      </c>
+      <c r="K291" s="3">
+        <v>0</v>
+      </c>
+      <c r="L291" s="3">
+        <v>0</v>
+      </c>
+      <c r="M291" s="3">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A292" s="3"/>
+      <c r="A292" s="3">
+        <v>21</v>
+      </c>
+      <c r="B292" s="3">
+        <v>1</v>
+      </c>
+      <c r="C292" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F292" s="3">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="I292" s="3">
+        <v>0</v>
+      </c>
+      <c r="J292" s="3">
+        <v>0</v>
+      </c>
+      <c r="K292" s="3">
+        <v>0</v>
+      </c>
+      <c r="L292" s="3">
+        <v>0</v>
+      </c>
+      <c r="M292" s="3">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A293" s="3"/>
+      <c r="A293" s="3">
+        <v>21</v>
+      </c>
+      <c r="B293" s="3">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D293" s="3">
+        <v>0</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1</v>
+      </c>
+      <c r="F293" s="3">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="I293" s="3">
+        <v>0</v>
+      </c>
+      <c r="J293" s="3">
+        <v>0</v>
+      </c>
+      <c r="K293" s="3">
+        <v>0</v>
+      </c>
+      <c r="L293" s="3">
+        <v>0</v>
+      </c>
+      <c r="M293" s="3">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A294" s="3"/>
+      <c r="A294" s="3">
+        <v>21</v>
+      </c>
+      <c r="B294" s="3">
+        <v>1</v>
+      </c>
+      <c r="C294" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D294" s="3">
+        <v>0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" s="3">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="I294" s="3">
+        <v>0</v>
+      </c>
+      <c r="J294" s="3">
+        <v>0</v>
+      </c>
+      <c r="K294" s="3">
+        <v>0</v>
+      </c>
+      <c r="L294" s="3">
+        <v>0</v>
+      </c>
+      <c r="M294" s="3">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A295" s="3"/>
+      <c r="A295" s="3">
+        <v>21</v>
+      </c>
+      <c r="B295" s="3">
+        <v>1</v>
+      </c>
+      <c r="C295" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D295" s="3">
+        <v>1</v>
+      </c>
+      <c r="E295" s="3">
+        <v>0</v>
+      </c>
+      <c r="F295" s="3">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="I295" s="3">
+        <v>0</v>
+      </c>
+      <c r="J295" s="3">
+        <v>1</v>
+      </c>
+      <c r="K295" s="3">
+        <v>0</v>
+      </c>
+      <c r="L295" s="3">
+        <v>0</v>
+      </c>
+      <c r="M295" s="3">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>21</v>
+      </c>
+      <c r="B296" s="3">
+        <v>2</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D296" s="3">
+        <v>1</v>
+      </c>
+      <c r="E296" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" s="3">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="3">
+        <v>0</v>
+      </c>
+      <c r="J296" s="3">
+        <v>0</v>
+      </c>
+      <c r="K296" s="3">
+        <v>0</v>
+      </c>
+      <c r="L296" s="3">
+        <v>0</v>
+      </c>
+      <c r="M296" s="3">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>21</v>
+      </c>
+      <c r="B297" s="3">
+        <v>2</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D297" s="3">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" s="3">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="3">
+        <v>0</v>
+      </c>
+      <c r="J297" s="3">
+        <v>0</v>
+      </c>
+      <c r="K297" s="3">
+        <v>0</v>
+      </c>
+      <c r="L297" s="3">
+        <v>0</v>
+      </c>
+      <c r="M297" s="3">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>21</v>
+      </c>
+      <c r="B298" s="3">
+        <v>2</v>
+      </c>
+      <c r="C298" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" s="3">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="3">
+        <v>0</v>
+      </c>
+      <c r="J298" s="3">
+        <v>0</v>
+      </c>
+      <c r="K298" s="3">
+        <v>0</v>
+      </c>
+      <c r="L298" s="3">
+        <v>0</v>
+      </c>
+      <c r="M298" s="3">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>21</v>
+      </c>
+      <c r="B299" s="3">
+        <v>2</v>
+      </c>
+      <c r="C299" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D299" s="3">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="3">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="I299" s="3">
+        <v>0</v>
+      </c>
+      <c r="J299" s="3">
+        <v>0</v>
+      </c>
+      <c r="K299" s="3">
+        <v>0</v>
+      </c>
+      <c r="L299" s="3">
+        <v>1</v>
+      </c>
+      <c r="M299" s="3">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>21</v>
+      </c>
+      <c r="B300" s="3">
+        <v>2</v>
+      </c>
+      <c r="C300" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D300" s="3">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" s="3">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="I300" s="3">
+        <v>1</v>
+      </c>
+      <c r="J300" s="3">
+        <v>0</v>
+      </c>
+      <c r="K300" s="3">
+        <v>0</v>
+      </c>
+      <c r="L300" s="3">
+        <v>0</v>
+      </c>
+      <c r="M300" s="3">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>21</v>
+      </c>
+      <c r="B301" s="3">
+        <v>2</v>
+      </c>
+      <c r="C301" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D301" s="3">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301" s="3">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="I301" s="3">
+        <v>0</v>
+      </c>
+      <c r="J301" s="3">
+        <v>1</v>
+      </c>
+      <c r="K301" s="3">
+        <v>0</v>
+      </c>
+      <c r="L301" s="3">
+        <v>0</v>
+      </c>
+      <c r="M301" s="3">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>21</v>
+      </c>
+      <c r="B302" s="3">
+        <v>3</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302" s="3">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="I302" s="3">
+        <v>0</v>
+      </c>
+      <c r="J302" s="3">
+        <v>1</v>
+      </c>
+      <c r="K302" s="3">
+        <v>0</v>
+      </c>
+      <c r="L302" s="3">
+        <v>0</v>
+      </c>
+      <c r="M302" s="3">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>21</v>
+      </c>
+      <c r="B303" s="3">
+        <v>3</v>
+      </c>
+      <c r="C303" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D303" s="3">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" s="3">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="I303" s="3">
+        <v>1</v>
+      </c>
+      <c r="J303" s="3">
+        <v>1</v>
+      </c>
+      <c r="K303" s="3">
+        <v>0</v>
+      </c>
+      <c r="L303" s="3">
+        <v>0</v>
+      </c>
+      <c r="M303" s="3">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>21</v>
+      </c>
+      <c r="B304" s="3">
+        <v>3</v>
+      </c>
+      <c r="C304" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D304" s="3">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>15</v>
+      </c>
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="I304" s="3">
+        <v>0</v>
+      </c>
+      <c r="J304" s="3">
+        <v>1</v>
+      </c>
+      <c r="K304" s="3">
+        <v>0</v>
+      </c>
+      <c r="L304" s="3">
+        <v>0</v>
+      </c>
+      <c r="M304" s="3">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>21</v>
+      </c>
+      <c r="B305" s="3">
+        <v>3</v>
+      </c>
+      <c r="C305" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" s="3">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="I305" s="3">
+        <v>0</v>
+      </c>
+      <c r="J305" s="3">
+        <v>0</v>
+      </c>
+      <c r="K305" s="3">
+        <v>0</v>
+      </c>
+      <c r="L305" s="3">
+        <v>0</v>
+      </c>
+      <c r="M305" s="3">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>21</v>
+      </c>
+      <c r="B306" s="3">
+        <v>3</v>
+      </c>
+      <c r="C306" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D306" s="3">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306" s="3">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="I306" s="3">
+        <v>0</v>
+      </c>
+      <c r="J306" s="3">
+        <v>1</v>
+      </c>
+      <c r="K306" s="3">
+        <v>0</v>
+      </c>
+      <c r="L306" s="3">
+        <v>1</v>
+      </c>
+      <c r="M306" s="3">
+        <v>1</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>21</v>
+      </c>
+      <c r="B307" s="3">
+        <v>3</v>
+      </c>
+      <c r="C307" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D307" s="3">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307" s="3">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="I307" s="3">
+        <v>0</v>
+      </c>
+      <c r="J307" s="3">
+        <v>1</v>
+      </c>
+      <c r="K307" s="3">
+        <v>0</v>
+      </c>
+      <c r="L307" s="3">
+        <v>1</v>
+      </c>
+      <c r="M307" s="3">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>21</v>
+      </c>
+      <c r="B308" s="3">
+        <v>4</v>
+      </c>
+      <c r="C308" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D308" s="3">
+        <v>1</v>
+      </c>
+      <c r="E308" s="3">
+        <v>0</v>
+      </c>
+      <c r="F308" s="3">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="I308" s="3">
+        <v>0</v>
+      </c>
+      <c r="J308" s="3">
+        <v>0</v>
+      </c>
+      <c r="K308" s="3">
+        <v>0</v>
+      </c>
+      <c r="L308" s="3">
+        <v>0</v>
+      </c>
+      <c r="M308" s="3">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <v>21</v>
+      </c>
+      <c r="B309" s="3">
+        <v>4</v>
+      </c>
+      <c r="C309" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D309" s="3">
+        <v>1</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F309" s="3">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="I309" s="3">
+        <v>0</v>
+      </c>
+      <c r="J309" s="3">
+        <v>1</v>
+      </c>
+      <c r="K309" s="3">
+        <v>0</v>
+      </c>
+      <c r="L309" s="3">
+        <v>1</v>
+      </c>
+      <c r="M309" s="3">
+        <v>1</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <v>21</v>
+      </c>
+      <c r="B310" s="3">
+        <v>4</v>
+      </c>
+      <c r="C310" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D310" s="3">
+        <v>1</v>
+      </c>
+      <c r="E310" s="3">
+        <v>1</v>
+      </c>
+      <c r="F310" s="3">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="I310" s="3">
+        <v>1</v>
+      </c>
+      <c r="J310" s="3">
+        <v>0</v>
+      </c>
+      <c r="K310" s="3">
+        <v>0</v>
+      </c>
+      <c r="L310" s="3">
+        <v>0</v>
+      </c>
+      <c r="M310" s="3">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>21</v>
+      </c>
+      <c r="B311" s="3">
+        <v>4</v>
+      </c>
+      <c r="C311" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D311" s="3">
+        <v>0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>15</v>
+      </c>
+      <c r="F311" s="3">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="I311" s="3">
+        <v>0</v>
+      </c>
+      <c r="J311" s="3">
+        <v>0</v>
+      </c>
+      <c r="K311" s="3">
+        <v>0</v>
+      </c>
+      <c r="L311" s="3">
+        <v>0</v>
+      </c>
+      <c r="M311" s="3">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>21</v>
+      </c>
+      <c r="B312" s="3">
+        <v>4</v>
+      </c>
+      <c r="C312" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D312" s="3">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" s="3">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="I312" s="3">
+        <v>0</v>
+      </c>
+      <c r="J312" s="3">
+        <v>0</v>
+      </c>
+      <c r="K312" s="3">
+        <v>0</v>
+      </c>
+      <c r="L312" s="3">
+        <v>0</v>
+      </c>
+      <c r="M312" s="3">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <v>21</v>
+      </c>
+      <c r="B313" s="3">
+        <v>4</v>
+      </c>
+      <c r="C313" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D313" s="3">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313" s="3">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="I313" s="3">
+        <v>0</v>
+      </c>
+      <c r="J313" s="3">
+        <v>1</v>
+      </c>
+      <c r="K313" s="3">
+        <v>0</v>
+      </c>
+      <c r="L313" s="3">
+        <v>1</v>
+      </c>
+      <c r="M313" s="3">
+        <v>1</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <v>21</v>
+      </c>
+      <c r="B314" s="3">
+        <v>5</v>
+      </c>
+      <c r="C314" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D314" s="3">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" s="3">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="I314" s="3">
+        <v>0</v>
+      </c>
+      <c r="J314" s="3">
+        <v>1</v>
+      </c>
+      <c r="K314" s="3">
+        <v>0</v>
+      </c>
+      <c r="L314" s="3">
+        <v>0</v>
+      </c>
+      <c r="M314" s="3">
+        <v>1</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <v>21</v>
+      </c>
+      <c r="B315" s="3">
+        <v>5</v>
+      </c>
+      <c r="C315" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D315" s="3">
+        <v>0</v>
+      </c>
+      <c r="E315" s="3">
+        <v>0</v>
+      </c>
+      <c r="F315" s="3">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="I315" s="3">
+        <v>0</v>
+      </c>
+      <c r="J315" s="3">
+        <v>0</v>
+      </c>
+      <c r="K315" s="3">
+        <v>0</v>
+      </c>
+      <c r="L315" s="3">
+        <v>0</v>
+      </c>
+      <c r="M315" s="3">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <v>21</v>
+      </c>
+      <c r="B316" s="3">
+        <v>5</v>
+      </c>
+      <c r="C316" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D316" s="3">
+        <v>1</v>
+      </c>
+      <c r="E316" s="3">
+        <v>0</v>
+      </c>
+      <c r="F316" s="3">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="I316" s="3">
+        <v>0</v>
+      </c>
+      <c r="J316" s="3">
+        <v>1</v>
+      </c>
+      <c r="K316" s="3">
+        <v>0</v>
+      </c>
+      <c r="L316" s="3">
+        <v>0</v>
+      </c>
+      <c r="M316" s="3">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <v>21</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5</v>
+      </c>
+      <c r="C317" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D317" s="3">
+        <v>1</v>
+      </c>
+      <c r="E317" s="3">
+        <v>0</v>
+      </c>
+      <c r="F317" s="3">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="I317" s="3">
+        <v>0</v>
+      </c>
+      <c r="J317" s="3">
+        <v>1</v>
+      </c>
+      <c r="K317" s="3">
+        <v>0</v>
+      </c>
+      <c r="L317" s="3">
+        <v>0</v>
+      </c>
+      <c r="M317" s="3">
+        <v>1</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+      <c r="O317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>21</v>
+      </c>
+      <c r="B318" s="3">
+        <v>5</v>
+      </c>
+      <c r="C318" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D318" s="3">
+        <v>1</v>
+      </c>
+      <c r="E318" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F318" s="3">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="I318" s="3">
+        <v>0</v>
+      </c>
+      <c r="J318" s="3">
+        <v>1</v>
+      </c>
+      <c r="K318" s="3">
+        <v>0</v>
+      </c>
+      <c r="L318" s="3">
+        <v>0</v>
+      </c>
+      <c r="M318" s="3">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>21</v>
+      </c>
+      <c r="B319" s="3">
+        <v>5</v>
+      </c>
+      <c r="C319" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D319" s="3">
+        <v>1</v>
+      </c>
+      <c r="E319" s="3">
+        <v>0</v>
+      </c>
+      <c r="F319" s="3">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="I319" s="3">
+        <v>0</v>
+      </c>
+      <c r="J319" s="3">
+        <v>0</v>
+      </c>
+      <c r="K319" s="3">
+        <v>0</v>
+      </c>
+      <c r="L319" s="3">
+        <v>1</v>
+      </c>
+      <c r="M319" s="3">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <v>21</v>
+      </c>
+      <c r="B320" s="3">
+        <v>6</v>
+      </c>
+      <c r="C320" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D320" s="3">
+        <v>1</v>
+      </c>
+      <c r="E320" s="3">
+        <v>1</v>
+      </c>
+      <c r="F320" s="3">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="I320" s="3">
+        <v>0</v>
+      </c>
+      <c r="J320" s="3">
+        <v>1</v>
+      </c>
+      <c r="K320" s="3">
+        <v>0</v>
+      </c>
+      <c r="L320" s="3">
+        <v>1</v>
+      </c>
+      <c r="M320" s="3">
+        <v>1</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>21</v>
+      </c>
+      <c r="B321" s="3">
+        <v>6</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D321" s="3">
+        <v>0</v>
+      </c>
+      <c r="E321" s="3">
+        <v>1</v>
+      </c>
+      <c r="F321" s="3">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="I321" s="3">
+        <v>0</v>
+      </c>
+      <c r="J321" s="3">
+        <v>0</v>
+      </c>
+      <c r="K321" s="3">
+        <v>0</v>
+      </c>
+      <c r="L321" s="3">
+        <v>0</v>
+      </c>
+      <c r="M321" s="3">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <v>21</v>
+      </c>
+      <c r="B322" s="3">
+        <v>6</v>
+      </c>
+      <c r="C322" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D322" s="3">
+        <v>1</v>
+      </c>
+      <c r="E322" s="3">
+        <v>0</v>
+      </c>
+      <c r="F322" s="3">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="I322" s="3">
+        <v>0</v>
+      </c>
+      <c r="J322" s="3">
+        <v>1</v>
+      </c>
+      <c r="K322" s="3">
+        <v>0</v>
+      </c>
+      <c r="L322" s="3">
+        <v>1</v>
+      </c>
+      <c r="M322" s="3">
+        <v>1</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <v>21</v>
+      </c>
+      <c r="B323" s="3">
+        <v>6</v>
+      </c>
+      <c r="C323" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D323" s="3">
+        <v>1</v>
+      </c>
+      <c r="E323" s="3">
+        <v>1</v>
+      </c>
+      <c r="F323" s="3">
+        <v>0</v>
+      </c>
+      <c r="G323" s="3">
+        <v>0</v>
+      </c>
+      <c r="I323" s="3">
+        <v>0</v>
+      </c>
+      <c r="J323" s="3">
+        <v>0</v>
+      </c>
+      <c r="K323" s="3">
+        <v>0</v>
+      </c>
+      <c r="L323" s="3">
+        <v>0</v>
+      </c>
+      <c r="M323" s="3">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>21</v>
+      </c>
+      <c r="B324" s="3">
+        <v>6</v>
+      </c>
+      <c r="C324" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D324" s="3">
+        <v>0</v>
+      </c>
+      <c r="E324" s="3">
+        <v>2</v>
+      </c>
+      <c r="F324" s="3">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="I324" s="3">
+        <v>0</v>
+      </c>
+      <c r="J324" s="3">
+        <v>0</v>
+      </c>
+      <c r="K324" s="3">
+        <v>0</v>
+      </c>
+      <c r="L324" s="3">
+        <v>0</v>
+      </c>
+      <c r="M324" s="3">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>21</v>
+      </c>
+      <c r="B325" s="3">
+        <v>6</v>
+      </c>
+      <c r="C325" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D325" s="3">
+        <v>1</v>
+      </c>
+      <c r="E325" s="3">
+        <v>0</v>
+      </c>
+      <c r="F325" s="3">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="I325" s="3">
+        <v>0</v>
+      </c>
+      <c r="J325" s="3">
+        <v>1</v>
+      </c>
+      <c r="K325" s="3">
+        <v>0</v>
+      </c>
+      <c r="L325" s="3">
+        <v>0</v>
+      </c>
+      <c r="M325" s="3">
+        <v>1</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>22</v>
+      </c>
+      <c r="B326" s="3">
+        <v>1</v>
+      </c>
+      <c r="C326" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D326" s="3">
+        <v>1</v>
+      </c>
+      <c r="E326" s="3">
+        <v>0</v>
+      </c>
+      <c r="F326" s="3">
+        <v>2</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="I326" s="3">
+        <v>0</v>
+      </c>
+      <c r="J326" s="3">
+        <v>1</v>
+      </c>
+      <c r="K326" s="3">
+        <v>0</v>
+      </c>
+      <c r="L326" s="3">
+        <v>1</v>
+      </c>
+      <c r="M326" s="3">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>22</v>
+      </c>
+      <c r="B327" s="3">
+        <v>1</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D327" s="3">
+        <v>1</v>
+      </c>
+      <c r="E327" s="3">
+        <v>0</v>
+      </c>
+      <c r="F327" s="3">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="I327" s="3">
+        <v>0</v>
+      </c>
+      <c r="J327" s="3">
+        <v>0</v>
+      </c>
+      <c r="K327" s="3">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327" s="3">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
+        <v>22</v>
+      </c>
+      <c r="B328" s="3">
+        <v>1</v>
+      </c>
+      <c r="C328" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D328" s="3">
+        <v>1</v>
+      </c>
+      <c r="E328" s="3">
+        <v>2</v>
+      </c>
+      <c r="F328" s="3">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="I328" s="3">
+        <v>0</v>
+      </c>
+      <c r="J328" s="3">
+        <v>1</v>
+      </c>
+      <c r="K328" s="3">
+        <v>0</v>
+      </c>
+      <c r="L328" s="3">
+        <v>0</v>
+      </c>
+      <c r="M328" s="3">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
+        <v>22</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1</v>
+      </c>
+      <c r="C329" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D329" s="3">
+        <v>1</v>
+      </c>
+      <c r="E329" s="3">
+        <v>0</v>
+      </c>
+      <c r="F329" s="3">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="I329" s="3">
+        <v>0</v>
+      </c>
+      <c r="J329" s="3">
+        <v>1</v>
+      </c>
+      <c r="K329" s="3">
+        <v>0</v>
+      </c>
+      <c r="L329" s="3">
+        <v>0</v>
+      </c>
+      <c r="M329" s="3">
+        <v>1</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A330" s="3">
+        <v>22</v>
+      </c>
+      <c r="B330" s="3">
+        <v>1</v>
+      </c>
+      <c r="C330" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D330" s="3">
+        <v>0</v>
+      </c>
+      <c r="E330" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F330" s="3">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="I330" s="3">
+        <v>0</v>
+      </c>
+      <c r="J330" s="3">
+        <v>0</v>
+      </c>
+      <c r="K330" s="3">
+        <v>0</v>
+      </c>
+      <c r="L330" s="3">
+        <v>0</v>
+      </c>
+      <c r="M330" s="3">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A331" s="3">
+        <v>22</v>
+      </c>
+      <c r="B331" s="3">
+        <v>1</v>
+      </c>
+      <c r="C331" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D331" s="3">
+        <v>0</v>
+      </c>
+      <c r="E331" s="3">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="I331" s="3">
+        <v>0</v>
+      </c>
+      <c r="J331" s="3">
+        <v>0</v>
+      </c>
+      <c r="K331" s="3">
+        <v>0</v>
+      </c>
+      <c r="L331" s="3">
+        <v>0</v>
+      </c>
+      <c r="M331" s="3">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A332" s="3">
+        <v>22</v>
+      </c>
+      <c r="B332" s="3">
+        <v>2</v>
+      </c>
+      <c r="C332" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D332" s="3">
+        <v>1</v>
+      </c>
+      <c r="E332" s="3">
+        <v>1</v>
+      </c>
+      <c r="F332" s="3">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="I332" s="3">
+        <v>0</v>
+      </c>
+      <c r="J332" s="3">
+        <v>1</v>
+      </c>
+      <c r="K332" s="3">
+        <v>0</v>
+      </c>
+      <c r="L332" s="3">
+        <v>1</v>
+      </c>
+      <c r="M332" s="3">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A333" s="3">
+        <v>22</v>
+      </c>
+      <c r="B333" s="3">
+        <v>2</v>
+      </c>
+      <c r="C333" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D333" s="3">
+        <v>1</v>
+      </c>
+      <c r="E333" s="3">
+        <v>1</v>
+      </c>
+      <c r="F333" s="3">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="I333" s="3">
+        <v>0</v>
+      </c>
+      <c r="J333" s="3">
+        <v>1</v>
+      </c>
+      <c r="K333" s="3">
+        <v>0</v>
+      </c>
+      <c r="L333" s="3">
+        <v>1</v>
+      </c>
+      <c r="M333" s="3">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A334" s="3">
+        <v>22</v>
+      </c>
+      <c r="B334" s="3">
+        <v>2</v>
+      </c>
+      <c r="C334" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D334" s="3">
+        <v>1</v>
+      </c>
+      <c r="E334" s="3">
+        <v>2</v>
+      </c>
+      <c r="F334" s="3">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="I334" s="3">
+        <v>0</v>
+      </c>
+      <c r="J334" s="3">
+        <v>1</v>
+      </c>
+      <c r="K334" s="3">
+        <v>0</v>
+      </c>
+      <c r="L334" s="3">
+        <v>0</v>
+      </c>
+      <c r="M334" s="3">
+        <v>1</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A335" s="3">
+        <v>22</v>
+      </c>
+      <c r="B335" s="3">
+        <v>2</v>
+      </c>
+      <c r="C335" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D335" s="3">
+        <v>1</v>
+      </c>
+      <c r="E335" s="3">
+        <v>3</v>
+      </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="I335" s="3">
+        <v>0</v>
+      </c>
+      <c r="J335" s="3">
+        <v>1</v>
+      </c>
+      <c r="K335" s="3">
+        <v>0</v>
+      </c>
+      <c r="L335" s="3">
+        <v>0</v>
+      </c>
+      <c r="M335" s="3">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A336" s="3">
+        <v>22</v>
+      </c>
+      <c r="B336" s="3">
+        <v>2</v>
+      </c>
+      <c r="C336" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D336" s="3">
+        <v>1</v>
+      </c>
+      <c r="E336" s="3">
+        <v>2</v>
+      </c>
+      <c r="F336" s="3">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="I336" s="3">
+        <v>0</v>
+      </c>
+      <c r="J336" s="3">
+        <v>0</v>
+      </c>
+      <c r="K336" s="3">
+        <v>0</v>
+      </c>
+      <c r="L336" s="3">
+        <v>0</v>
+      </c>
+      <c r="M336" s="3">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
+        <v>22</v>
+      </c>
+      <c r="B337" s="3">
+        <v>2</v>
+      </c>
+      <c r="C337" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D337" s="3">
+        <v>0</v>
+      </c>
+      <c r="E337" s="3">
+        <v>1</v>
+      </c>
+      <c r="F337" s="3">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="I337" s="3">
+        <v>0</v>
+      </c>
+      <c r="J337" s="3">
+        <v>0</v>
+      </c>
+      <c r="K337" s="3">
+        <v>0</v>
+      </c>
+      <c r="L337" s="3">
+        <v>0</v>
+      </c>
+      <c r="M337" s="3">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
+        <v>22</v>
+      </c>
+      <c r="B338" s="3">
+        <v>3</v>
+      </c>
+      <c r="C338" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D338" s="3">
+        <v>0</v>
+      </c>
+      <c r="E338" s="3">
+        <v>1</v>
+      </c>
+      <c r="F338" s="3">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="I338" s="3">
+        <v>0</v>
+      </c>
+      <c r="J338" s="3">
+        <v>1</v>
+      </c>
+      <c r="K338" s="3">
+        <v>0</v>
+      </c>
+      <c r="L338" s="3">
+        <v>0</v>
+      </c>
+      <c r="M338" s="3">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
+        <v>22</v>
+      </c>
+      <c r="B339" s="3">
+        <v>3</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D339" s="3">
+        <v>1</v>
+      </c>
+      <c r="E339" s="3">
+        <v>0</v>
+      </c>
+      <c r="F339" s="3">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="I339" s="3">
+        <v>0</v>
+      </c>
+      <c r="J339" s="3">
+        <v>1</v>
+      </c>
+      <c r="K339" s="3">
+        <v>0</v>
+      </c>
+      <c r="L339" s="3">
+        <v>1</v>
+      </c>
+      <c r="M339" s="3">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <v>22</v>
+      </c>
+      <c r="B340" s="3">
+        <v>3</v>
+      </c>
+      <c r="C340" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D340" s="3">
+        <v>0</v>
+      </c>
+      <c r="E340" s="3">
+        <v>1</v>
+      </c>
+      <c r="F340" s="3">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="I340" s="3">
+        <v>0</v>
+      </c>
+      <c r="J340" s="3">
+        <v>1</v>
+      </c>
+      <c r="K340" s="3">
+        <v>0</v>
+      </c>
+      <c r="L340" s="3">
+        <v>0</v>
+      </c>
+      <c r="M340" s="3">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>22</v>
+      </c>
+      <c r="B341" s="3">
+        <v>3</v>
+      </c>
+      <c r="C341" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D341" s="3">
+        <v>0</v>
+      </c>
+      <c r="E341" s="3">
+        <v>1</v>
+      </c>
+      <c r="F341" s="3">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="I341" s="3">
+        <v>0</v>
+      </c>
+      <c r="J341" s="3">
+        <v>0</v>
+      </c>
+      <c r="K341" s="3">
+        <v>0</v>
+      </c>
+      <c r="L341" s="3">
+        <v>0</v>
+      </c>
+      <c r="M341" s="3">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <v>22</v>
+      </c>
+      <c r="B342" s="3">
+        <v>3</v>
+      </c>
+      <c r="C342" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0</v>
+      </c>
+      <c r="E342" s="3">
+        <v>1</v>
+      </c>
+      <c r="F342" s="3">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="I342" s="3">
+        <v>0</v>
+      </c>
+      <c r="J342" s="3">
+        <v>0</v>
+      </c>
+      <c r="K342" s="3">
+        <v>0</v>
+      </c>
+      <c r="L342" s="3">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <v>22</v>
+      </c>
+      <c r="B343" s="3">
+        <v>3</v>
+      </c>
+      <c r="C343" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D343" s="3">
+        <v>0</v>
+      </c>
+      <c r="E343" s="3">
+        <v>0</v>
+      </c>
+      <c r="F343" s="3">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="I343" s="3">
+        <v>0</v>
+      </c>
+      <c r="J343" s="3">
+        <v>0</v>
+      </c>
+      <c r="K343" s="3">
+        <v>0</v>
+      </c>
+      <c r="L343" s="3">
+        <v>0</v>
+      </c>
+      <c r="M343" s="3">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
+        <v>22</v>
+      </c>
+      <c r="B344" s="3">
+        <v>4</v>
+      </c>
+      <c r="C344" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D344" s="3">
+        <v>1</v>
+      </c>
+      <c r="E344" s="3">
+        <v>0</v>
+      </c>
+      <c r="F344" s="3">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="I344" s="3">
+        <v>0</v>
+      </c>
+      <c r="J344" s="3">
+        <v>1</v>
+      </c>
+      <c r="K344" s="3">
+        <v>0</v>
+      </c>
+      <c r="L344" s="3">
+        <v>0</v>
+      </c>
+      <c r="M344" s="3">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A345" s="3">
+        <v>22</v>
+      </c>
+      <c r="B345" s="3">
+        <v>4</v>
+      </c>
+      <c r="C345" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D345" s="3">
+        <v>1</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F345" s="3">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="I345" s="3">
+        <v>0</v>
+      </c>
+      <c r="J345" s="3">
+        <v>0</v>
+      </c>
+      <c r="K345" s="3">
+        <v>0</v>
+      </c>
+      <c r="L345" s="3">
+        <v>0</v>
+      </c>
+      <c r="M345" s="3">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A346" s="3">
+        <v>22</v>
+      </c>
+      <c r="B346" s="3">
+        <v>4</v>
+      </c>
+      <c r="C346" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D346" s="3">
+        <v>1</v>
+      </c>
+      <c r="E346" s="3">
+        <v>1</v>
+      </c>
+      <c r="F346" s="3">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="I346" s="3">
+        <v>0</v>
+      </c>
+      <c r="J346" s="3">
+        <v>1</v>
+      </c>
+      <c r="K346" s="3">
+        <v>0</v>
+      </c>
+      <c r="L346" s="3">
+        <v>0</v>
+      </c>
+      <c r="M346" s="3">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A347" s="3">
+        <v>22</v>
+      </c>
+      <c r="B347" s="3">
+        <v>4</v>
+      </c>
+      <c r="C347" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D347" s="3">
+        <v>1</v>
+      </c>
+      <c r="E347" s="3">
+        <v>1</v>
+      </c>
+      <c r="F347" s="3">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="I347" s="3">
+        <v>0</v>
+      </c>
+      <c r="J347" s="3">
+        <v>1</v>
+      </c>
+      <c r="K347" s="3">
+        <v>0</v>
+      </c>
+      <c r="L347" s="3">
+        <v>1</v>
+      </c>
+      <c r="M347" s="3">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A348" s="3">
+        <v>22</v>
+      </c>
+      <c r="B348" s="3">
+        <v>4</v>
+      </c>
+      <c r="C348" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3">
+        <v>0</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="I348" s="3">
+        <v>0</v>
+      </c>
+      <c r="J348" s="3">
+        <v>0</v>
+      </c>
+      <c r="K348" s="3">
+        <v>0</v>
+      </c>
+      <c r="L348" s="3">
+        <v>0</v>
+      </c>
+      <c r="M348" s="3">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A349" s="3">
+        <v>22</v>
+      </c>
+      <c r="B349" s="3">
+        <v>4</v>
+      </c>
+      <c r="C349" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3">
+        <v>0</v>
+      </c>
+      <c r="F349" s="3">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="I349" s="3">
+        <v>0</v>
+      </c>
+      <c r="J349" s="3">
+        <v>0</v>
+      </c>
+      <c r="K349" s="3">
+        <v>0</v>
+      </c>
+      <c r="L349" s="3">
+        <v>0</v>
+      </c>
+      <c r="M349" s="3">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A350" s="3">
+        <v>22</v>
+      </c>
+      <c r="B350" s="3">
+        <v>5</v>
+      </c>
+      <c r="C350" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D350" s="3">
+        <v>1</v>
+      </c>
+      <c r="E350" s="3">
+        <v>2</v>
+      </c>
+      <c r="F350" s="3">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="I350" s="3">
+        <v>0</v>
+      </c>
+      <c r="J350" s="3">
+        <v>1</v>
+      </c>
+      <c r="K350" s="3">
+        <v>0</v>
+      </c>
+      <c r="L350" s="3">
+        <v>1</v>
+      </c>
+      <c r="M350" s="3">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A351" s="3">
+        <v>22</v>
+      </c>
+      <c r="B351" s="3">
+        <v>5</v>
+      </c>
+      <c r="C351" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D351" s="3">
+        <v>1</v>
+      </c>
+      <c r="E351" s="3">
+        <v>0</v>
+      </c>
+      <c r="F351" s="3">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="I351" s="3">
+        <v>0</v>
+      </c>
+      <c r="J351" s="3">
+        <v>1</v>
+      </c>
+      <c r="K351" s="3">
+        <v>0</v>
+      </c>
+      <c r="L351" s="3">
+        <v>0</v>
+      </c>
+      <c r="M351" s="3">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A352" s="3">
+        <v>22</v>
+      </c>
+      <c r="B352" s="3">
+        <v>5</v>
+      </c>
+      <c r="C352" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D352" s="3">
+        <v>1</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352" s="3">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="I352" s="3">
+        <v>0</v>
+      </c>
+      <c r="J352" s="3">
+        <v>0</v>
+      </c>
+      <c r="K352" s="3">
+        <v>0</v>
+      </c>
+      <c r="L352" s="3">
+        <v>1</v>
+      </c>
+      <c r="M352" s="3">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A353" s="3">
+        <v>22</v>
+      </c>
+      <c r="B353" s="3">
+        <v>5</v>
+      </c>
+      <c r="C353" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
+      <c r="E353" s="3">
+        <v>0</v>
+      </c>
+      <c r="F353" s="3">
+        <v>1</v>
+      </c>
+      <c r="G353" s="3">
+        <v>0</v>
+      </c>
+      <c r="I353" s="3">
+        <v>1</v>
+      </c>
+      <c r="J353" s="3">
+        <v>1</v>
+      </c>
+      <c r="K353" s="3">
+        <v>0</v>
+      </c>
+      <c r="L353" s="3">
+        <v>1</v>
+      </c>
+      <c r="M353" s="3">
+        <v>1</v>
+      </c>
+      <c r="N353" s="3">
+        <v>0</v>
+      </c>
+      <c r="O353" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A354" s="3">
+        <v>22</v>
+      </c>
+      <c r="B354" s="3">
+        <v>5</v>
+      </c>
+      <c r="C354" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D354" s="3">
+        <v>1</v>
+      </c>
+      <c r="E354" s="3">
+        <v>0</v>
+      </c>
+      <c r="F354" s="3">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="I354" s="3">
+        <v>0</v>
+      </c>
+      <c r="J354" s="3">
+        <v>1</v>
+      </c>
+      <c r="K354" s="3">
+        <v>0</v>
+      </c>
+      <c r="L354" s="3">
+        <v>1</v>
+      </c>
+      <c r="M354" s="3">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A355" s="3">
+        <v>22</v>
+      </c>
+      <c r="B355" s="3">
+        <v>5</v>
+      </c>
+      <c r="C355" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D355" s="3">
+        <v>0</v>
+      </c>
+      <c r="E355" s="3">
+        <v>0</v>
+      </c>
+      <c r="F355" s="3">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="I355" s="3">
+        <v>0</v>
+      </c>
+      <c r="J355" s="3">
+        <v>0</v>
+      </c>
+      <c r="K355" s="3">
+        <v>0</v>
+      </c>
+      <c r="L355" s="3">
+        <v>0</v>
+      </c>
+      <c r="M355" s="3">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A356" s="3">
+        <v>22</v>
+      </c>
+      <c r="B356" s="3">
+        <v>6</v>
+      </c>
+      <c r="C356" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D356" s="3">
+        <v>1</v>
+      </c>
+      <c r="E356" s="3">
+        <v>1</v>
+      </c>
+      <c r="F356" s="3">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="I356" s="3">
+        <v>0</v>
+      </c>
+      <c r="J356" s="3">
+        <v>1</v>
+      </c>
+      <c r="K356" s="3">
+        <v>0</v>
+      </c>
+      <c r="L356" s="3">
+        <v>0</v>
+      </c>
+      <c r="M356" s="3">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+      <c r="O356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A357" s="3">
+        <v>22</v>
+      </c>
+      <c r="B357" s="3">
+        <v>6</v>
+      </c>
+      <c r="C357" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D357" s="3">
+        <v>0</v>
+      </c>
+      <c r="E357" s="3">
+        <v>0</v>
+      </c>
+      <c r="F357" s="3">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="I357" s="3">
+        <v>0</v>
+      </c>
+      <c r="J357" s="3">
+        <v>0</v>
+      </c>
+      <c r="K357" s="3">
+        <v>0</v>
+      </c>
+      <c r="L357" s="3">
+        <v>0</v>
+      </c>
+      <c r="M357" s="3">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+      <c r="O357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A358" s="3">
+        <v>22</v>
+      </c>
+      <c r="B358" s="3">
+        <v>6</v>
+      </c>
+      <c r="C358" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0</v>
+      </c>
+      <c r="E358" s="3">
+        <v>0</v>
+      </c>
+      <c r="F358" s="3">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="I358" s="3">
+        <v>0</v>
+      </c>
+      <c r="J358" s="3">
+        <v>0</v>
+      </c>
+      <c r="K358" s="3">
+        <v>0</v>
+      </c>
+      <c r="L358" s="3">
+        <v>0</v>
+      </c>
+      <c r="M358" s="3">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+      <c r="O358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A359" s="3">
+        <v>22</v>
+      </c>
+      <c r="B359" s="3">
+        <v>6</v>
+      </c>
+      <c r="C359" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D359" s="3">
+        <v>1</v>
+      </c>
+      <c r="E359" s="3">
+        <v>0</v>
+      </c>
+      <c r="F359" s="3">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="I359" s="3">
+        <v>0</v>
+      </c>
+      <c r="J359" s="3">
+        <v>0</v>
+      </c>
+      <c r="K359" s="3">
+        <v>0</v>
+      </c>
+      <c r="L359" s="3">
+        <v>0</v>
+      </c>
+      <c r="M359" s="3">
+        <v>1</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A360" s="3">
+        <v>22</v>
+      </c>
+      <c r="B360" s="3">
+        <v>6</v>
+      </c>
+      <c r="C360" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D360" s="3">
+        <v>0</v>
+      </c>
+      <c r="E360" s="3">
+        <v>0</v>
+      </c>
+      <c r="F360" s="3">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="I360" s="3">
+        <v>0</v>
+      </c>
+      <c r="J360" s="3">
+        <v>0</v>
+      </c>
+      <c r="K360" s="3">
+        <v>0</v>
+      </c>
+      <c r="L360" s="3">
+        <v>0</v>
+      </c>
+      <c r="M360" s="3">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A361" s="3">
+        <v>22</v>
+      </c>
+      <c r="B361" s="3">
+        <v>6</v>
+      </c>
+      <c r="C361" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D361" s="3">
+        <v>0</v>
+      </c>
+      <c r="E361" s="3">
+        <v>1</v>
+      </c>
+      <c r="F361" s="3">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="I361" s="3">
+        <v>0</v>
+      </c>
+      <c r="J361" s="3">
+        <v>0</v>
+      </c>
+      <c r="K361" s="3">
+        <v>0</v>
+      </c>
+      <c r="L361" s="3">
+        <v>0</v>
+      </c>
+      <c r="M361" s="3">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A362" s="3">
+        <v>23</v>
+      </c>
+      <c r="B362" s="3">
+        <v>1</v>
+      </c>
+      <c r="C362" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0</v>
+      </c>
+      <c r="E362" s="3">
+        <v>3</v>
+      </c>
+      <c r="F362" s="3">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="I362" s="3">
+        <v>0</v>
+      </c>
+      <c r="J362" s="3">
+        <v>0</v>
+      </c>
+      <c r="K362" s="3">
+        <v>0</v>
+      </c>
+      <c r="L362" s="3">
+        <v>0</v>
+      </c>
+      <c r="M362" s="3">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
+      <c r="O362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A363" s="3">
+        <v>23</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1</v>
+      </c>
+      <c r="C363" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D363" s="3">
+        <v>0</v>
+      </c>
+      <c r="E363" s="3">
+        <v>2</v>
+      </c>
+      <c r="F363" s="3">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="I363" s="3">
+        <v>0</v>
+      </c>
+      <c r="J363" s="3">
+        <v>0</v>
+      </c>
+      <c r="K363" s="3">
+        <v>0</v>
+      </c>
+      <c r="L363" s="3">
+        <v>0</v>
+      </c>
+      <c r="M363" s="3">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+      <c r="O363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A364" s="3">
+        <v>23</v>
+      </c>
+      <c r="B364" s="3">
+        <v>1</v>
+      </c>
+      <c r="C364" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D364" s="3">
+        <v>1</v>
+      </c>
+      <c r="E364" s="3">
+        <v>1</v>
+      </c>
+      <c r="F364" s="3">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="I364" s="3">
+        <v>0</v>
+      </c>
+      <c r="J364" s="3">
+        <v>1</v>
+      </c>
+      <c r="K364" s="3">
+        <v>0</v>
+      </c>
+      <c r="L364" s="3">
+        <v>1</v>
+      </c>
+      <c r="M364" s="3">
+        <v>1</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+      <c r="O364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A365" s="3">
+        <v>23</v>
+      </c>
+      <c r="B365" s="3">
+        <v>1</v>
+      </c>
+      <c r="C365" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D365" s="3">
+        <v>1</v>
+      </c>
+      <c r="E365" s="3">
+        <v>1</v>
+      </c>
+      <c r="F365" s="3">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="I365" s="3">
+        <v>0</v>
+      </c>
+      <c r="J365" s="3">
+        <v>1</v>
+      </c>
+      <c r="K365" s="3">
+        <v>0</v>
+      </c>
+      <c r="L365" s="3">
+        <v>0</v>
+      </c>
+      <c r="M365" s="3">
+        <v>1</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+      <c r="O365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A366" s="3">
+        <v>23</v>
+      </c>
+      <c r="B366" s="3">
+        <v>1</v>
+      </c>
+      <c r="C366" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D366" s="3">
+        <v>1</v>
+      </c>
+      <c r="E366" s="3">
+        <v>3</v>
+      </c>
+      <c r="F366" s="3">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="I366" s="3">
+        <v>0</v>
+      </c>
+      <c r="J366" s="3">
+        <v>1</v>
+      </c>
+      <c r="K366" s="3">
+        <v>0</v>
+      </c>
+      <c r="L366" s="3">
+        <v>0</v>
+      </c>
+      <c r="M366" s="3">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+      <c r="O366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>23</v>
+      </c>
+      <c r="B367" s="3">
+        <v>1</v>
+      </c>
+      <c r="C367" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D367" s="3">
+        <v>0</v>
+      </c>
+      <c r="E367" s="3">
+        <v>0</v>
+      </c>
+      <c r="F367" s="3">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="I367" s="3">
+        <v>0</v>
+      </c>
+      <c r="J367" s="3">
+        <v>0</v>
+      </c>
+      <c r="K367" s="3">
+        <v>0</v>
+      </c>
+      <c r="L367" s="3">
+        <v>0</v>
+      </c>
+      <c r="M367" s="3">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>23</v>
+      </c>
+      <c r="B368" s="3">
+        <v>2</v>
+      </c>
+      <c r="C368" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D368" s="3">
+        <v>0</v>
+      </c>
+      <c r="E368" s="3">
+        <v>2</v>
+      </c>
+      <c r="F368" s="3">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="I368" s="3">
+        <v>0</v>
+      </c>
+      <c r="J368" s="3">
+        <v>0</v>
+      </c>
+      <c r="K368" s="3">
+        <v>0</v>
+      </c>
+      <c r="L368" s="3">
+        <v>0</v>
+      </c>
+      <c r="M368" s="3">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+      <c r="O368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>23</v>
+      </c>
+      <c r="B369" s="3">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D369" s="3">
+        <v>1</v>
+      </c>
+      <c r="E369" s="3">
+        <v>1</v>
+      </c>
+      <c r="F369" s="3">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="I369" s="3">
+        <v>0</v>
+      </c>
+      <c r="J369" s="3">
+        <v>1</v>
+      </c>
+      <c r="K369" s="3">
+        <v>0</v>
+      </c>
+      <c r="L369" s="3">
+        <v>0</v>
+      </c>
+      <c r="M369" s="3">
+        <v>1</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
+      <c r="O369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>23</v>
+      </c>
+      <c r="B370" s="3">
+        <v>2</v>
+      </c>
+      <c r="C370" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D370" s="3">
+        <v>0</v>
+      </c>
+      <c r="E370" s="3">
+        <v>1</v>
+      </c>
+      <c r="F370" s="3">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="I370" s="3">
+        <v>0</v>
+      </c>
+      <c r="J370" s="3">
+        <v>1</v>
+      </c>
+      <c r="K370" s="3">
+        <v>0</v>
+      </c>
+      <c r="L370" s="3">
+        <v>1</v>
+      </c>
+      <c r="M370" s="3">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>0</v>
+      </c>
+      <c r="O370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>23</v>
+      </c>
+      <c r="B371" s="3">
+        <v>2</v>
+      </c>
+      <c r="C371" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F371" s="3">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="I371" s="3">
+        <v>0</v>
+      </c>
+      <c r="J371" s="3">
+        <v>1</v>
+      </c>
+      <c r="K371" s="3">
+        <v>0</v>
+      </c>
+      <c r="L371" s="3">
+        <v>1</v>
+      </c>
+      <c r="M371" s="3">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>0</v>
+      </c>
+      <c r="O371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>23</v>
+      </c>
+      <c r="B372" s="3">
+        <v>2</v>
+      </c>
+      <c r="C372" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D372" s="3">
+        <v>1</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F372" s="3">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="I372" s="3">
+        <v>0</v>
+      </c>
+      <c r="J372" s="3">
+        <v>1</v>
+      </c>
+      <c r="K372" s="3">
+        <v>0</v>
+      </c>
+      <c r="L372" s="3">
+        <v>1</v>
+      </c>
+      <c r="M372" s="3">
+        <v>1</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+      <c r="O372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>23</v>
+      </c>
+      <c r="B373" s="3">
+        <v>2</v>
+      </c>
+      <c r="C373" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D373" s="3">
+        <v>1</v>
+      </c>
+      <c r="E373" s="3">
+        <v>0</v>
+      </c>
+      <c r="F373" s="3">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="I373" s="3">
+        <v>0</v>
+      </c>
+      <c r="J373" s="3">
+        <v>1</v>
+      </c>
+      <c r="K373" s="3">
+        <v>0</v>
+      </c>
+      <c r="L373" s="3">
+        <v>0</v>
+      </c>
+      <c r="M373" s="3">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>0</v>
+      </c>
+      <c r="O373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>23</v>
+      </c>
+      <c r="B374" s="3">
+        <v>3</v>
+      </c>
+      <c r="C374" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D374" s="3">
+        <v>1</v>
+      </c>
+      <c r="E374" s="3">
+        <v>1</v>
+      </c>
+      <c r="F374" s="3">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="I374" s="3">
+        <v>0</v>
+      </c>
+      <c r="J374" s="3">
+        <v>1</v>
+      </c>
+      <c r="K374" s="3">
+        <v>0</v>
+      </c>
+      <c r="L374" s="3">
+        <v>0</v>
+      </c>
+      <c r="M374" s="3">
+        <v>1</v>
+      </c>
+      <c r="N374">
+        <v>0</v>
+      </c>
+      <c r="O374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>23</v>
+      </c>
+      <c r="B375" s="3">
+        <v>3</v>
+      </c>
+      <c r="C375" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D375" s="3">
+        <v>0</v>
+      </c>
+      <c r="E375" s="3">
+        <v>1</v>
+      </c>
+      <c r="F375" s="3">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="I375" s="3">
+        <v>0</v>
+      </c>
+      <c r="J375" s="3">
+        <v>0</v>
+      </c>
+      <c r="K375" s="3">
+        <v>1</v>
+      </c>
+      <c r="L375" s="3">
+        <v>1</v>
+      </c>
+      <c r="M375" s="3">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+      <c r="O375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>23</v>
+      </c>
+      <c r="B376" s="3">
+        <v>3</v>
+      </c>
+      <c r="C376" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D376" s="3">
+        <v>0</v>
+      </c>
+      <c r="E376" s="3">
+        <v>0</v>
+      </c>
+      <c r="F376" s="3">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="I376" s="3">
+        <v>0</v>
+      </c>
+      <c r="J376" s="3">
+        <v>1</v>
+      </c>
+      <c r="K376" s="3">
+        <v>0</v>
+      </c>
+      <c r="L376" s="3">
+        <v>0</v>
+      </c>
+      <c r="M376" s="3">
+        <v>1</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>23</v>
+      </c>
+      <c r="B377" s="3">
+        <v>3</v>
+      </c>
+      <c r="C377" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D377" s="3">
+        <v>0</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F377" s="3">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="I377" s="3">
+        <v>0</v>
+      </c>
+      <c r="J377" s="3">
+        <v>0</v>
+      </c>
+      <c r="K377" s="3">
+        <v>1</v>
+      </c>
+      <c r="L377" s="3">
+        <v>1</v>
+      </c>
+      <c r="M377" s="3">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+      <c r="O377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>23</v>
+      </c>
+      <c r="B378" s="3">
+        <v>3</v>
+      </c>
+      <c r="C378" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D378" s="3">
+        <v>1</v>
+      </c>
+      <c r="E378" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F378" s="3">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="I378" s="3">
+        <v>0</v>
+      </c>
+      <c r="J378" s="3">
+        <v>0</v>
+      </c>
+      <c r="K378" s="3">
+        <v>0</v>
+      </c>
+      <c r="L378" s="3">
+        <v>0</v>
+      </c>
+      <c r="M378" s="3">
+        <v>1</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+      <c r="O378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>23</v>
+      </c>
+      <c r="B379" s="3">
+        <v>3</v>
+      </c>
+      <c r="C379" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D379" s="3">
+        <v>1</v>
+      </c>
+      <c r="E379" s="3">
+        <v>2</v>
+      </c>
+      <c r="F379" s="3">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="I379" s="3">
+        <v>0</v>
+      </c>
+      <c r="J379" s="3">
+        <v>1</v>
+      </c>
+      <c r="K379" s="3">
+        <v>1</v>
+      </c>
+      <c r="L379" s="3">
+        <v>0</v>
+      </c>
+      <c r="M379" s="3">
+        <v>1</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+      <c r="O379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A380" s="3">
+        <v>23</v>
+      </c>
+      <c r="B380" s="3">
+        <v>4</v>
+      </c>
+      <c r="C380" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D380" s="3">
+        <v>1</v>
+      </c>
+      <c r="E380" s="3">
+        <v>0</v>
+      </c>
+      <c r="F380" s="3">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="I380" s="3">
+        <v>0</v>
+      </c>
+      <c r="J380" s="3">
+        <v>1</v>
+      </c>
+      <c r="K380" s="3">
+        <v>1</v>
+      </c>
+      <c r="L380" s="3">
+        <v>1</v>
+      </c>
+      <c r="M380" s="3">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+      <c r="O380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A381" s="3">
+        <v>23</v>
+      </c>
+      <c r="B381" s="3">
+        <v>4</v>
+      </c>
+      <c r="C381" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1</v>
+      </c>
+      <c r="E381" s="3">
+        <v>0</v>
+      </c>
+      <c r="F381" s="3">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="I381" s="3">
+        <v>0</v>
+      </c>
+      <c r="J381" s="3">
+        <v>1</v>
+      </c>
+      <c r="K381" s="3">
+        <v>0</v>
+      </c>
+      <c r="L381" s="3">
+        <v>1</v>
+      </c>
+      <c r="M381" s="3">
+        <v>1</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A382" s="3">
+        <v>23</v>
+      </c>
+      <c r="B382" s="3">
+        <v>4</v>
+      </c>
+      <c r="C382" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D382" s="3">
+        <v>1</v>
+      </c>
+      <c r="E382" s="3">
+        <v>1</v>
+      </c>
+      <c r="F382" s="3">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="I382" s="3">
+        <v>0</v>
+      </c>
+      <c r="J382" s="3">
+        <v>1</v>
+      </c>
+      <c r="K382" s="3">
+        <v>0</v>
+      </c>
+      <c r="L382" s="3">
+        <v>0</v>
+      </c>
+      <c r="M382" s="3">
+        <v>1</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+      <c r="O382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A383" s="3">
+        <v>23</v>
+      </c>
+      <c r="B383" s="3">
+        <v>4</v>
+      </c>
+      <c r="C383" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D383" s="3">
+        <v>1</v>
+      </c>
+      <c r="E383" s="3">
+        <v>0</v>
+      </c>
+      <c r="F383" s="3">
+        <v>1</v>
+      </c>
+      <c r="G383" s="3">
+        <v>0</v>
+      </c>
+      <c r="I383" s="3">
+        <v>0</v>
+      </c>
+      <c r="J383" s="3">
+        <v>0</v>
+      </c>
+      <c r="K383" s="3">
+        <v>1</v>
+      </c>
+      <c r="L383" s="3">
+        <v>1</v>
+      </c>
+      <c r="M383" s="3">
+        <v>1</v>
+      </c>
+      <c r="N383" s="3">
+        <v>0</v>
+      </c>
+      <c r="O383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A384" s="3">
+        <v>23</v>
+      </c>
+      <c r="B384" s="3">
+        <v>4</v>
+      </c>
+      <c r="C384" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D384" s="3">
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>15</v>
+      </c>
+      <c r="F384" s="3">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="I384" s="3">
+        <v>0</v>
+      </c>
+      <c r="J384" s="3">
+        <v>1</v>
+      </c>
+      <c r="K384" s="3">
+        <v>0</v>
+      </c>
+      <c r="L384" s="3">
+        <v>0</v>
+      </c>
+      <c r="M384" s="3">
+        <v>1</v>
+      </c>
+      <c r="N384">
+        <v>0</v>
+      </c>
+      <c r="O384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>23</v>
+      </c>
+      <c r="B385" s="3">
+        <v>4</v>
+      </c>
+      <c r="C385" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D385" s="3">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385" s="3">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="I385" s="3">
+        <v>0</v>
+      </c>
+      <c r="J385" s="3">
+        <v>0</v>
+      </c>
+      <c r="K385" s="3">
+        <v>0</v>
+      </c>
+      <c r="L385" s="3">
+        <v>0</v>
+      </c>
+      <c r="M385" s="3">
+        <v>0</v>
+      </c>
+      <c r="N385">
+        <v>0</v>
+      </c>
+      <c r="O385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>23</v>
+      </c>
+      <c r="B386" s="3">
+        <v>5</v>
+      </c>
+      <c r="C386" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D386" s="3">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>2</v>
+      </c>
+      <c r="F386" s="3">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="I386" s="3">
+        <v>0</v>
+      </c>
+      <c r="J386" s="3">
+        <v>0</v>
+      </c>
+      <c r="K386" s="3">
+        <v>0</v>
+      </c>
+      <c r="L386" s="3">
+        <v>0</v>
+      </c>
+      <c r="M386" s="3">
+        <v>1</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+      <c r="O386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>23</v>
+      </c>
+      <c r="B387" s="3">
+        <v>5</v>
+      </c>
+      <c r="C387" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D387" s="3">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387" s="3">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="I387" s="3">
+        <v>0</v>
+      </c>
+      <c r="J387" s="3">
+        <v>1</v>
+      </c>
+      <c r="K387" s="3">
+        <v>0</v>
+      </c>
+      <c r="L387" s="3">
+        <v>1</v>
+      </c>
+      <c r="M387" s="3">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>23</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5</v>
+      </c>
+      <c r="C388" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D388" s="3">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1.2</v>
+      </c>
+      <c r="F388" s="3">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="I388" s="3">
+        <v>0</v>
+      </c>
+      <c r="J388" s="3">
+        <v>1</v>
+      </c>
+      <c r="K388" s="3">
+        <v>0</v>
+      </c>
+      <c r="L388" s="3">
+        <v>1</v>
+      </c>
+      <c r="M388" s="3">
+        <v>1</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+      <c r="O388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>23</v>
+      </c>
+      <c r="B389" s="3">
+        <v>5</v>
+      </c>
+      <c r="C389" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389" s="3">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="I389" s="3">
+        <v>0</v>
+      </c>
+      <c r="J389" s="3">
+        <v>1</v>
+      </c>
+      <c r="K389" s="3">
+        <v>0</v>
+      </c>
+      <c r="L389" s="3">
+        <v>0</v>
+      </c>
+      <c r="M389" s="3">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+      <c r="O389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>23</v>
+      </c>
+      <c r="B390" s="3">
+        <v>5</v>
+      </c>
+      <c r="C390" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D390" s="3">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390" s="3">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="I390" s="3">
+        <v>0</v>
+      </c>
+      <c r="J390" s="3">
+        <v>0</v>
+      </c>
+      <c r="K390" s="3">
+        <v>0</v>
+      </c>
+      <c r="L390" s="3">
+        <v>0</v>
+      </c>
+      <c r="M390" s="3">
+        <v>0</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+      <c r="O390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>23</v>
+      </c>
+      <c r="B391" s="3">
+        <v>5</v>
+      </c>
+      <c r="C391" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D391" s="3">
+        <v>0</v>
+      </c>
+      <c r="E391" s="3">
+        <v>0</v>
+      </c>
+      <c r="F391" s="3">
+        <v>1</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="I391" s="3">
+        <v>0</v>
+      </c>
+      <c r="J391" s="3">
+        <v>0</v>
+      </c>
+      <c r="K391" s="3">
+        <v>0</v>
+      </c>
+      <c r="L391" s="3">
+        <v>0</v>
+      </c>
+      <c r="M391" s="3">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+      <c r="O391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>23</v>
+      </c>
+      <c r="B392" s="3">
+        <v>6</v>
+      </c>
+      <c r="C392" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D392" s="3">
+        <v>1</v>
+      </c>
+      <c r="E392" s="3">
+        <v>1</v>
+      </c>
+      <c r="F392" s="3">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="I392" s="3">
+        <v>0</v>
+      </c>
+      <c r="J392" s="3">
+        <v>0</v>
+      </c>
+      <c r="K392" s="3">
+        <v>0</v>
+      </c>
+      <c r="L392" s="3">
+        <v>0</v>
+      </c>
+      <c r="M392" s="3">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>0</v>
+      </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>23</v>
+      </c>
+      <c r="B393" s="3">
+        <v>6</v>
+      </c>
+      <c r="C393" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D393" s="3">
+        <v>0</v>
+      </c>
+      <c r="E393" s="3">
+        <v>1</v>
+      </c>
+      <c r="F393" s="3">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="I393" s="3">
+        <v>0</v>
+      </c>
+      <c r="J393" s="3">
+        <v>0</v>
+      </c>
+      <c r="K393" s="3">
+        <v>0</v>
+      </c>
+      <c r="L393" s="3">
+        <v>0</v>
+      </c>
+      <c r="M393" s="3">
+        <v>0</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>23</v>
+      </c>
+      <c r="B394" s="3">
+        <v>6</v>
+      </c>
+      <c r="C394" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D394" s="3">
+        <v>1</v>
+      </c>
+      <c r="E394" s="3">
+        <v>0</v>
+      </c>
+      <c r="F394" s="3">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="I394" s="3">
+        <v>0</v>
+      </c>
+      <c r="J394" s="3">
+        <v>1</v>
+      </c>
+      <c r="K394" s="3">
+        <v>0</v>
+      </c>
+      <c r="L394" s="3">
+        <v>0</v>
+      </c>
+      <c r="M394" s="3">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+      <c r="O394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>23</v>
+      </c>
+      <c r="B395" s="3">
+        <v>6</v>
+      </c>
+      <c r="C395" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D395" s="3">
+        <v>0</v>
+      </c>
+      <c r="E395" s="3">
+        <v>1</v>
+      </c>
+      <c r="F395" s="3">
+        <v>1</v>
+      </c>
+      <c r="G395" s="3">
+        <v>0</v>
+      </c>
+      <c r="I395" s="3">
+        <v>0</v>
+      </c>
+      <c r="J395" s="3">
+        <v>0</v>
+      </c>
+      <c r="K395" s="3">
+        <v>0</v>
+      </c>
+      <c r="L395" s="3">
+        <v>0</v>
+      </c>
+      <c r="M395" s="3">
+        <v>0</v>
+      </c>
+      <c r="N395" s="3">
+        <v>0</v>
+      </c>
+      <c r="O395" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>23</v>
+      </c>
+      <c r="B396" s="3">
+        <v>6</v>
+      </c>
+      <c r="C396" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D396" s="3">
+        <v>0</v>
+      </c>
+      <c r="E396" s="3">
+        <v>1</v>
+      </c>
+      <c r="F396" s="3">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="I396" s="3">
+        <v>0</v>
+      </c>
+      <c r="J396" s="3">
+        <v>0</v>
+      </c>
+      <c r="K396" s="3">
+        <v>0</v>
+      </c>
+      <c r="L396" s="3">
+        <v>0</v>
+      </c>
+      <c r="M396" s="3">
+        <v>0</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+      <c r="O396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>23</v>
+      </c>
+      <c r="B397" s="3">
+        <v>6</v>
+      </c>
+      <c r="C397" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D397" s="3">
+        <v>1</v>
+      </c>
+      <c r="E397" s="3">
+        <v>2</v>
+      </c>
+      <c r="F397" s="3">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="I397" s="3">
+        <v>0</v>
+      </c>
+      <c r="J397" s="3">
+        <v>0</v>
+      </c>
+      <c r="K397" s="3">
+        <v>0</v>
+      </c>
+      <c r="L397" s="3">
+        <v>0</v>
+      </c>
+      <c r="M397" s="3">
+        <v>0</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+      <c r="O397">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
